--- a/ABT_Model.xlsx
+++ b/ABT_Model.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E84A8A-BAF5-4EDE-B4C7-589A02F6335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A453C2-F1C3-495C-91DF-D6A54CFCBFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes | Quant Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>ABT</t>
   </si>
@@ -60,6 +62,354 @@
   </si>
   <si>
     <t>Q4'24</t>
+  </si>
+  <si>
+    <t>Creon, Duspatal, Dicetel, Heptral, Transmetil, Samyr, Duphalac, Duphaston, Femoston, TriCor, Serc, Brufen, Sevedol, clarithromycin</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Rapid diagnostics</t>
+  </si>
+  <si>
+    <t>BinaxNOW, PanBio</t>
+  </si>
+  <si>
+    <t>POC system</t>
+  </si>
+  <si>
+    <t>iSTAT</t>
+  </si>
+  <si>
+    <t>molecular diagnostics/PCR</t>
+  </si>
+  <si>
+    <t>Alinity m, m2000</t>
+  </si>
+  <si>
+    <t>core lab</t>
+  </si>
+  <si>
+    <t>Alinity</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Enteral Feeding: Glucerna, Osmolite</t>
+  </si>
+  <si>
+    <t>Pediasure</t>
+  </si>
+  <si>
+    <t>Ensure</t>
+  </si>
+  <si>
+    <t>Similac</t>
+  </si>
+  <si>
+    <t>Nutritional</t>
+  </si>
+  <si>
+    <t>Infinity DBS system</t>
+  </si>
+  <si>
+    <t>Proclaim spinal cord stimulator</t>
+  </si>
+  <si>
+    <t>Neuromodulation</t>
+  </si>
+  <si>
+    <t>Tendyne transcatheter mitral valve replacement system</t>
+  </si>
+  <si>
+    <t>Amplatzer Amulet occluder</t>
+  </si>
+  <si>
+    <t>Amplatzer PFO occluder</t>
+  </si>
+  <si>
+    <t>Regent and Masters Series mechanical heart valves</t>
+  </si>
+  <si>
+    <t>Portico Navitor - transcatheter aortic heart valves</t>
+  </si>
+  <si>
+    <t>Epic - aortic valve and mitral valve replacement devices</t>
+  </si>
+  <si>
+    <t>TriClip - tricuspid transcatheter repair</t>
+  </si>
+  <si>
+    <t>MitraClip - transcatheter mitral valve repair system</t>
+  </si>
+  <si>
+    <t>Structural Heart</t>
+  </si>
+  <si>
+    <t>CentriMag - circulatory support system</t>
+  </si>
+  <si>
+    <t>CardioMEMS HF System pulmonary artery sensor</t>
+  </si>
+  <si>
+    <t>HeartMate LVAD</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>ViewFlex intracardiac echo catheter</t>
+  </si>
+  <si>
+    <t>Advisor HD Grid mapping catheter</t>
+  </si>
+  <si>
+    <t>Agilis NxT, Swartz - introducer catheters</t>
+  </si>
+  <si>
+    <t>EnSite cardiac mapping system</t>
+  </si>
+  <si>
+    <t>FlexAbility irrigated ablation catheter</t>
+  </si>
+  <si>
+    <t>TactiFlex, TactiCath ablation catheters</t>
+  </si>
+  <si>
+    <t>Electrophysiology</t>
+  </si>
+  <si>
+    <t>Confirm Rx, Jot Dx, Assert IQ implantable cardiac monitors</t>
+  </si>
+  <si>
+    <t>Quadra Assura ICD-CRT</t>
+  </si>
+  <si>
+    <t>Ellipse, Fortify Assura, Gallant ICD</t>
+  </si>
+  <si>
+    <t>Aveir single and dual-chamber leadless pacemakers</t>
+  </si>
+  <si>
+    <t>Assurity, Endurity pacemakers</t>
+  </si>
+  <si>
+    <t>Rhythm</t>
+  </si>
+  <si>
+    <t>StarClose (clip closure system), Perclose ProGlide, Perclose ProStyle (suture system)</t>
+  </si>
+  <si>
+    <t>XIENCE DES</t>
+  </si>
+  <si>
+    <t>Vascular</t>
+  </si>
+  <si>
+    <t>DexCom</t>
+  </si>
+  <si>
+    <t>FreeStyle, FreeStyle Libre, sensors, test strips</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>2017: Closes St. Jude Medical acquisition for $25B.</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE+NCI</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Net Debt</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Adult Nutritionals</t>
+  </si>
+  <si>
+    <t>Pediatric Nutritionals</t>
+  </si>
+  <si>
+    <t>Rapid Diagnostics</t>
+  </si>
+  <si>
+    <t>Core Lab</t>
+  </si>
+  <si>
+    <t>Molecular Dx</t>
+  </si>
+  <si>
+    <t>PoC Dx</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q120</t>
   </si>
 </sst>
 </file>
@@ -69,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +436,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibre"/>
@@ -119,18 +483,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -144,6 +538,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2870</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3CACA5-4C16-4AED-9FE7-CF1A4853D9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14347520" y="114300"/>
+          <a:ext cx="0" cy="10106725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>601144</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>601144</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A884C7-797F-496C-89FE-99EC013F93D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28966594" y="0"/>
+          <a:ext cx="0" cy="13202383"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,75 +925,3698 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>128.99</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>128.99</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45771</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1740</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1740</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C3*C4</f>
+        <v>224442.6</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f>C4*C5</f>
-        <v>224442.6</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
         <f>7616+351</f>
         <v>7967</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f>1500+12625</f>
+        <v>14125</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C5-C6+C7</f>
+        <v>230600.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{62E48829-7EEF-43CF-AE35-87BB05038DC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0773A5C-C572-4C44-A745-B751BE8F7CC9}">
+  <dimension ref="B2:BA53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="7"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:53">
+      <c r="C2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="3">
+        <v>2005</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>+AB2+1</f>
+        <v>2006</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>+AC2+1</f>
+        <v>2007</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>+AD2+1</f>
+        <v>2008</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>+AE2+1</f>
+        <v>2009</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>+AF2+1</f>
+        <v>2010</v>
+      </c>
+      <c r="AH2" s="3">
+        <f>+AG2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>+AH2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f>+AI2+1</f>
+        <v>2013</v>
+      </c>
+      <c r="AK2" s="3">
+        <f>+AJ2+1</f>
+        <v>2014</v>
+      </c>
+      <c r="AL2" s="3">
+        <f>+AK2+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AM2" s="3">
+        <f>+AL2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AN2" s="3">
+        <f>+AM2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="AO2" s="3">
+        <f>+AN2+1</f>
+        <v>2018</v>
+      </c>
+      <c r="AP2" s="3">
+        <f>+AO2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AQ2" s="3">
+        <f>+AP2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="AR2" s="3">
+        <f>+AQ2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AS2" s="3">
+        <f>+AR2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AT2" s="3">
+        <f>+AS2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AU2" s="3">
+        <f>+AT2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AV2" s="3">
+        <f>+AU2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AW2" s="3">
+        <f>+AV2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AX2" s="3">
+        <f>+AW2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AY2" s="3">
+        <f>+AX2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AZ2" s="3">
+        <f>+AY2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="BA2" s="3">
+        <f>+AZ2+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="2:53" s="8" customFormat="1">
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="AP3" s="8">
+        <f>31904-31847</f>
+        <v>57</v>
+      </c>
+      <c r="AQ3" s="8">
+        <f>34608-34542</f>
+        <v>66</v>
+      </c>
+      <c r="AR3" s="8">
+        <f>SUM(G3:J3)</f>
+        <v>52</v>
+      </c>
+      <c r="AS3" s="8">
+        <f>SUM(K3:N3)</f>
+        <v>8</v>
+      </c>
+      <c r="AT3" s="8">
+        <f>SUM(O3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="8">
+        <f>SUM(S3:V3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:53" s="8" customFormat="1">
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
+        <v>1070</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1180</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1265</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1203</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1147</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1223</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1326</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1216</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1189</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1287</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1368</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1222</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1294</v>
+      </c>
+      <c r="U4" s="9">
+        <f>+Q4*1.01</f>
+        <v>1381.68</v>
+      </c>
+      <c r="V4" s="9">
+        <f>+R4*1.01</f>
+        <v>1234.22</v>
+      </c>
+      <c r="AN4" s="8">
+        <f>3307+980</f>
+        <v>4287</v>
+      </c>
+      <c r="AO4" s="8">
+        <f>3363+1059</f>
+        <v>4422</v>
+      </c>
+      <c r="AP4" s="8">
+        <f>3392+1094</f>
+        <v>4486</v>
+      </c>
+      <c r="AQ4" s="8">
+        <f>3209+1094</f>
+        <v>4303</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>SUM(G4:J4)</f>
+        <v>4718</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>SUM(K4:N4)</f>
+        <v>4912</v>
+      </c>
+      <c r="AT4" s="8">
+        <f>SUM(O4:R4)</f>
+        <v>5066</v>
+      </c>
+      <c r="AU4" s="8">
+        <f>SUM(S4:V4)</f>
+        <v>5136.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53" s="8" customFormat="1">
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9">
+        <v>137</v>
+      </c>
+      <c r="I5" s="9">
+        <v>135</v>
+      </c>
+      <c r="J5" s="9">
+        <v>135</v>
+      </c>
+      <c r="K5" s="9">
+        <v>128</v>
+      </c>
+      <c r="L5" s="9">
+        <v>139</v>
+      </c>
+      <c r="M5" s="9">
+        <v>127</v>
+      </c>
+      <c r="N5" s="9">
+        <v>131</v>
+      </c>
+      <c r="O5" s="8">
+        <v>134</v>
+      </c>
+      <c r="P5" s="8">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>140</v>
+      </c>
+      <c r="R5" s="8">
+        <v>149</v>
+      </c>
+      <c r="S5" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="T5" s="8">
+        <v>156</v>
+      </c>
+      <c r="U5" s="9">
+        <f>+Q5*1.01</f>
+        <v>141.4</v>
+      </c>
+      <c r="V5" s="9">
+        <f>+R5*1.01</f>
+        <v>150.49</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>550</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>553</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>561</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>516</v>
+      </c>
+      <c r="AR5" s="8">
+        <f>SUM(G5:J5)</f>
+        <v>536</v>
+      </c>
+      <c r="AS5" s="8">
+        <f>SUM(K5:N5)</f>
+        <v>525</v>
+      </c>
+      <c r="AT5" s="8">
+        <f>SUM(O5:R5)</f>
+        <v>565</v>
+      </c>
+      <c r="AU5" s="8">
+        <f>SUM(S5:V5)</f>
+        <v>587.29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:53" s="8" customFormat="1">
+      <c r="B6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
+        <v>447</v>
+      </c>
+      <c r="H6" s="9">
+        <v>290</v>
+      </c>
+      <c r="I6" s="9">
+        <v>345</v>
+      </c>
+      <c r="J6" s="9">
+        <v>345</v>
+      </c>
+      <c r="K6" s="9">
+        <v>420</v>
+      </c>
+      <c r="L6" s="9">
+        <v>212</v>
+      </c>
+      <c r="M6" s="9">
+        <v>183</v>
+      </c>
+      <c r="N6" s="9">
+        <v>180</v>
+      </c>
+      <c r="O6" s="8">
+        <v>147</v>
+      </c>
+      <c r="P6" s="8">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>133</v>
+      </c>
+      <c r="R6" s="8">
+        <v>153</v>
+      </c>
+      <c r="S6" s="8">
+        <v>129.4</v>
+      </c>
+      <c r="T6" s="8">
+        <v>127</v>
+      </c>
+      <c r="U6" s="9">
+        <f>+Q6*1.01</f>
+        <v>134.33000000000001</v>
+      </c>
+      <c r="V6" s="9">
+        <f>+R6*1.01</f>
+        <v>154.53</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>463</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>484</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>442</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>1438</v>
+      </c>
+      <c r="AR6" s="8">
+        <f>SUM(G6:J6)</f>
+        <v>1427</v>
+      </c>
+      <c r="AS6" s="8">
+        <f>SUM(K6:N6)</f>
+        <v>995</v>
+      </c>
+      <c r="AT6" s="8">
+        <f>SUM(O6:R6)</f>
+        <v>574</v>
+      </c>
+      <c r="AU6" s="8">
+        <f>SUM(S6:V6)</f>
+        <v>545.26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:53" s="8" customFormat="1">
+      <c r="B7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>1182</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1306</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1292</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1348</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1184</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1221</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1219</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1264</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1182</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1293</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1314</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1370</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1205.4000000000001</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1329</v>
+      </c>
+      <c r="U7" s="9">
+        <f>+Q7*1.01</f>
+        <v>1327.14</v>
+      </c>
+      <c r="V7" s="9">
+        <f>+R7*1.01</f>
+        <v>1383.7</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>4063</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>4386</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>4656</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>4475</v>
+      </c>
+      <c r="AR7" s="8">
+        <f>SUM(G7:J7)</f>
+        <v>5128</v>
+      </c>
+      <c r="AS7" s="8">
+        <f>SUM(K7:N7)</f>
+        <v>4888</v>
+      </c>
+      <c r="AT7" s="8">
+        <f>SUM(O7:R7)</f>
+        <v>5159</v>
+      </c>
+      <c r="AU7" s="8">
+        <f>SUM(S7:V7)</f>
+        <v>5245.24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:53" s="8" customFormat="1">
+      <c r="B8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>2256</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1514</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2140</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2643</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3554</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2750</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2142</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1730</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1225</v>
+      </c>
+      <c r="P8" s="8">
+        <v>741</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>862</v>
+      </c>
+      <c r="R8" s="8">
+        <v>862</v>
+      </c>
+      <c r="S8" s="8">
+        <v>741.4</v>
+      </c>
+      <c r="T8" s="8">
+        <v>583</v>
+      </c>
+      <c r="U8" s="9">
+        <f>+Q8*1.01</f>
+        <v>870.62</v>
+      </c>
+      <c r="V8" s="9">
+        <f>+R8*1.01</f>
+        <v>870.62</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>540</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>2072</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>2054</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>4376</v>
+      </c>
+      <c r="AR8" s="8">
+        <f>SUM(G8:J8)</f>
+        <v>8553</v>
+      </c>
+      <c r="AS8" s="8">
+        <f>SUM(K8:N8)</f>
+        <v>10176</v>
+      </c>
+      <c r="AT8" s="8">
+        <f>SUM(O8:R8)</f>
+        <v>3690</v>
+      </c>
+      <c r="AU8" s="8">
+        <f>SUM(S8:V8)</f>
+        <v>3065.64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" s="8" customFormat="1">
+      <c r="B9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>1066</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1093</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1100</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1039</v>
+      </c>
+      <c r="K9" s="9">
+        <v>847</v>
+      </c>
+      <c r="L9" s="9">
+        <v>925</v>
+      </c>
+      <c r="M9" s="9">
+        <v>827</v>
+      </c>
+      <c r="N9" s="9">
+        <v>882</v>
+      </c>
+      <c r="O9" s="8">
+        <v>924</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1024</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1001</v>
+      </c>
+      <c r="R9" s="8">
+        <v>985</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1009.4</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1059</v>
+      </c>
+      <c r="U9" s="9">
+        <f>+Q9*1.01</f>
+        <v>1011.01</v>
+      </c>
+      <c r="V9" s="9">
+        <f>+R9*1.01</f>
+        <v>994.85</v>
+      </c>
+      <c r="AN9" s="8">
+        <f>2112+1777</f>
+        <v>3889</v>
+      </c>
+      <c r="AO9" s="8">
+        <f>1843+2254</f>
+        <v>4097</v>
+      </c>
+      <c r="AP9" s="8">
+        <f>1879+2282</f>
+        <v>4161</v>
+      </c>
+      <c r="AQ9" s="8">
+        <f>2140+1987</f>
+        <v>4127</v>
+      </c>
+      <c r="AR9" s="8">
+        <f>SUM(G9:J9)</f>
+        <v>4298</v>
+      </c>
+      <c r="AS9" s="8">
+        <f>SUM(K9:N9)</f>
+        <v>3481</v>
+      </c>
+      <c r="AT9" s="8">
+        <f>SUM(O9:R9)</f>
+        <v>3934</v>
+      </c>
+      <c r="AU9" s="8">
+        <f>SUM(S9:V9)</f>
+        <v>4074.2599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" s="8" customFormat="1">
+      <c r="B10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>970</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1015</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1008</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1003</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1047</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1028</v>
+      </c>
+      <c r="M10" s="9">
+        <v>968</v>
+      </c>
+      <c r="N10" s="9">
+        <v>935</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1043</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1052</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1072</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1053</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1059.4000000000001</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1091</v>
+      </c>
+      <c r="U10" s="9">
+        <f>+Q10*1.01</f>
+        <v>1082.72</v>
+      </c>
+      <c r="V10" s="9">
+        <f>+R10*1.01</f>
+        <v>1063.53</v>
+      </c>
+      <c r="AN10" s="8">
+        <f>1782+1254</f>
+        <v>3036</v>
+      </c>
+      <c r="AO10" s="8">
+        <f>1900+1232</f>
+        <v>3132</v>
+      </c>
+      <c r="AP10" s="8">
+        <f>1231+2017</f>
+        <v>3248</v>
+      </c>
+      <c r="AQ10" s="8">
+        <f>1292+2228</f>
+        <v>3520</v>
+      </c>
+      <c r="AR10" s="8">
+        <f>SUM(G10:J10)</f>
+        <v>3996</v>
+      </c>
+      <c r="AS10" s="8">
+        <f>SUM(K10:N10)</f>
+        <v>3978</v>
+      </c>
+      <c r="AT10" s="8">
+        <f>SUM(O10:R10)</f>
+        <v>4220</v>
+      </c>
+      <c r="AU10" s="8">
+        <f>SUM(S10:V10)</f>
+        <v>4296.6499999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" s="8" customFormat="1">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>184</v>
+      </c>
+      <c r="H11" s="9">
+        <v>210</v>
+      </c>
+      <c r="I11" s="9">
+        <v>190</v>
+      </c>
+      <c r="J11" s="9">
+        <v>197</v>
+      </c>
+      <c r="K11" s="9">
+        <v>179</v>
+      </c>
+      <c r="L11" s="9">
+        <v>197</v>
+      </c>
+      <c r="M11" s="9">
+        <v>192</v>
+      </c>
+      <c r="N11" s="9">
+        <v>202</v>
+      </c>
+      <c r="O11" s="8">
+        <v>196</v>
+      </c>
+      <c r="P11" s="8">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>227</v>
+      </c>
+      <c r="R11" s="8">
+        <v>240</v>
+      </c>
+      <c r="S11" s="8">
+        <v>226</v>
+      </c>
+      <c r="T11" s="8">
+        <v>243</v>
+      </c>
+      <c r="U11" s="9">
+        <f>+Q11*1.01</f>
+        <v>229.27</v>
+      </c>
+      <c r="V11" s="9">
+        <f>+R11*1.01</f>
+        <v>242.4</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>808</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>864</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>831</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>702</v>
+      </c>
+      <c r="AR11" s="8">
+        <f>SUM(G11:J11)</f>
+        <v>781</v>
+      </c>
+      <c r="AS11" s="8">
+        <f>SUM(K11:N11)</f>
+        <v>770</v>
+      </c>
+      <c r="AT11" s="8">
+        <f>SUM(O11:R11)</f>
+        <v>890</v>
+      </c>
+      <c r="AU11" s="8">
+        <f>SUM(S11:V11)</f>
+        <v>940.67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" s="8" customFormat="1">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>194</v>
+      </c>
+      <c r="H12" s="9">
+        <v>227</v>
+      </c>
+      <c r="I12" s="9">
+        <v>229</v>
+      </c>
+      <c r="J12" s="9">
+        <v>239</v>
+      </c>
+      <c r="K12" s="9">
+        <v>221</v>
+      </c>
+      <c r="L12" s="9">
+        <v>241</v>
+      </c>
+      <c r="M12" s="9">
+        <v>228</v>
+      </c>
+      <c r="N12" s="9">
+        <v>230</v>
+      </c>
+      <c r="O12" s="8">
+        <v>281</v>
+      </c>
+      <c r="P12" s="8">
+        <v>295</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>284</v>
+      </c>
+      <c r="R12" s="8">
+        <v>301</v>
+      </c>
+      <c r="S12" s="8">
+        <v>305</v>
+      </c>
+      <c r="T12" s="8">
+        <v>321</v>
+      </c>
+      <c r="U12" s="9">
+        <f>+Q12*1.01</f>
+        <v>286.83999999999997</v>
+      </c>
+      <c r="V12" s="9">
+        <f>+R12*1.01</f>
+        <v>304.01</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>643</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>646</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>769</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>740</v>
+      </c>
+      <c r="AR12" s="8">
+        <f>SUM(G12:J12)</f>
+        <v>889</v>
+      </c>
+      <c r="AS12" s="8">
+        <f>SUM(K12:N12)</f>
+        <v>920</v>
+      </c>
+      <c r="AT12" s="8">
+        <f>SUM(O12:R12)</f>
+        <v>1161</v>
+      </c>
+      <c r="AU12" s="8">
+        <f>SUM(S12:V12)</f>
+        <v>1216.8499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" s="8" customFormat="1">
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>377</v>
+      </c>
+      <c r="H13" s="9">
+        <v>422</v>
+      </c>
+      <c r="I13" s="9">
+        <v>392</v>
+      </c>
+      <c r="J13" s="9">
+        <v>419</v>
+      </c>
+      <c r="K13" s="9">
+        <v>411</v>
+      </c>
+      <c r="L13" s="9">
+        <v>440</v>
+      </c>
+      <c r="M13" s="9">
+        <v>420</v>
+      </c>
+      <c r="N13" s="9">
+        <v>441</v>
+      </c>
+      <c r="O13" s="8">
+        <v>461</v>
+      </c>
+      <c r="P13" s="8">
+        <v>498</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>487</v>
+      </c>
+      <c r="R13" s="8">
+        <v>498</v>
+      </c>
+      <c r="S13" s="8">
+        <v>515</v>
+      </c>
+      <c r="T13" s="8">
+        <v>564</v>
+      </c>
+      <c r="U13" s="9">
+        <f>+Q13*1.01</f>
+        <v>491.87</v>
+      </c>
+      <c r="V13" s="9">
+        <f>+R13*1.01</f>
+        <v>502.98</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>1083</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>1239</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>1400</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>1247</v>
+      </c>
+      <c r="AR13" s="8">
+        <f>SUM(G13:J13)</f>
+        <v>1610</v>
+      </c>
+      <c r="AS13" s="8">
+        <f>SUM(K13:N13)</f>
+        <v>1712</v>
+      </c>
+      <c r="AT13" s="8">
+        <f>SUM(O13:R13)</f>
+        <v>1944</v>
+      </c>
+      <c r="AU13" s="8">
+        <f>SUM(S13:V13)</f>
+        <v>2073.85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:53" s="8" customFormat="1">
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>431</v>
+      </c>
+      <c r="H14" s="9">
+        <v>487</v>
+      </c>
+      <c r="I14" s="9">
+        <v>485</v>
+      </c>
+      <c r="J14" s="9">
+        <v>504</v>
+      </c>
+      <c r="K14" s="9">
+        <v>485</v>
+      </c>
+      <c r="L14" s="9">
+        <v>486</v>
+      </c>
+      <c r="M14" s="9">
+        <v>469</v>
+      </c>
+      <c r="N14" s="9">
+        <v>487</v>
+      </c>
+      <c r="O14" s="8">
+        <v>505</v>
+      </c>
+      <c r="P14" s="8">
+        <v>553</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>544</v>
+      </c>
+      <c r="R14" s="8">
+        <v>593</v>
+      </c>
+      <c r="S14" s="8">
+        <v>587</v>
+      </c>
+      <c r="T14" s="8">
+        <v>627</v>
+      </c>
+      <c r="U14" s="9">
+        <f>+Q14*1.01</f>
+        <v>549.44000000000005</v>
+      </c>
+      <c r="V14" s="9">
+        <f>+R14*1.01</f>
+        <v>598.92999999999995</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>1382</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>1561</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>1721</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>1578</v>
+      </c>
+      <c r="AR14" s="8">
+        <f>SUM(G14:J14)</f>
+        <v>1907</v>
+      </c>
+      <c r="AS14" s="8">
+        <f>SUM(K14:N14)</f>
+        <v>1927</v>
+      </c>
+      <c r="AT14" s="8">
+        <f>SUM(O14:R14)</f>
+        <v>2195</v>
+      </c>
+      <c r="AU14" s="8">
+        <f>SUM(S14:V14)</f>
+        <v>2362.37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:53" s="8" customFormat="1">
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>519</v>
+      </c>
+      <c r="H15" s="9">
+        <v>567</v>
+      </c>
+      <c r="I15" s="9">
+        <v>571</v>
+      </c>
+      <c r="J15" s="9">
+        <v>541</v>
+      </c>
+      <c r="K15" s="9">
+        <v>524</v>
+      </c>
+      <c r="L15" s="9">
+        <v>548</v>
+      </c>
+      <c r="M15" s="9">
+        <v>533</v>
+      </c>
+      <c r="N15" s="9">
+        <v>514</v>
+      </c>
+      <c r="O15" s="8">
+        <v>527</v>
+      </c>
+      <c r="P15" s="8">
+        <v>583</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>563</v>
+      </c>
+      <c r="R15" s="8">
+        <v>582</v>
+      </c>
+      <c r="S15" s="8">
+        <v>562</v>
+      </c>
+      <c r="T15" s="8">
+        <v>607</v>
+      </c>
+      <c r="U15" s="9">
+        <f>+Q15*1.01</f>
+        <v>568.63</v>
+      </c>
+      <c r="V15" s="9">
+        <f>+R15*1.01</f>
+        <v>587.82000000000005</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>2103</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>2198</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>2144</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>1914</v>
+      </c>
+      <c r="AR15" s="8">
+        <f>SUM(G15:J15)</f>
+        <v>2198</v>
+      </c>
+      <c r="AS15" s="8">
+        <f>SUM(K15:N15)</f>
+        <v>2119</v>
+      </c>
+      <c r="AT15" s="8">
+        <f>SUM(O15:R15)</f>
+        <v>2255</v>
+      </c>
+      <c r="AU15" s="8">
+        <f>SUM(S15:V15)</f>
+        <v>2325.4500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:53" s="8" customFormat="1">
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>635</v>
+      </c>
+      <c r="H16" s="9">
+        <v>697</v>
+      </c>
+      <c r="I16" s="9">
+        <v>644</v>
+      </c>
+      <c r="J16" s="9">
+        <v>678</v>
+      </c>
+      <c r="K16" s="9">
+        <v>619</v>
+      </c>
+      <c r="L16" s="9">
+        <v>653</v>
+      </c>
+      <c r="M16" s="9">
+        <v>606</v>
+      </c>
+      <c r="N16" s="9">
+        <v>605</v>
+      </c>
+      <c r="O16" s="8">
+        <v>617</v>
+      </c>
+      <c r="P16" s="8">
+        <v>715</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>672</v>
+      </c>
+      <c r="R16" s="8">
+        <v>677</v>
+      </c>
+      <c r="S16" s="8">
+        <v>689</v>
+      </c>
+      <c r="T16" s="8">
+        <v>724</v>
+      </c>
+      <c r="U16" s="9">
+        <f>+Q16*1.01</f>
+        <v>678.72</v>
+      </c>
+      <c r="V16" s="9">
+        <f>+R16*1.01</f>
+        <v>683.77</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>2892</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>2929</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>2850</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>2339</v>
+      </c>
+      <c r="AR16" s="8">
+        <f>SUM(G16:J16)</f>
+        <v>2654</v>
+      </c>
+      <c r="AS16" s="8">
+        <f>SUM(K16:N16)</f>
+        <v>2483</v>
+      </c>
+      <c r="AT16" s="8">
+        <f>SUM(O16:R16)</f>
+        <v>2681</v>
+      </c>
+      <c r="AU16" s="8">
+        <f>SUM(S16:V16)</f>
+        <v>2775.4900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" s="8" customFormat="1">
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>980</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1056</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1121</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1171</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1126</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1192</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1167</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1271</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1313</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1424</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1472</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1552</v>
+      </c>
+      <c r="S17" s="8">
+        <v>1569</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1648</v>
+      </c>
+      <c r="U17" s="9">
+        <f>+Q17*1.01</f>
+        <v>1486.72</v>
+      </c>
+      <c r="V17" s="9">
+        <f>+R17*1.01</f>
+        <v>1567.52</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>1933</v>
+      </c>
+      <c r="AP17" s="8">
+        <v>2524</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>3267</v>
+      </c>
+      <c r="AR17" s="8">
+        <f>SUM(G17:J17)</f>
+        <v>4328</v>
+      </c>
+      <c r="AS17" s="8">
+        <f>SUM(K17:N17)</f>
+        <v>4756</v>
+      </c>
+      <c r="AT17" s="8">
+        <f>SUM(O17:R17)</f>
+        <v>5761</v>
+      </c>
+      <c r="AU17" s="8">
+        <f>SUM(S17:V17)</f>
+        <v>6271.24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:47" s="14" customFormat="1" ht="15">
+      <c r="B18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
+        <f>SUM(G3:G17)</f>
+        <v>10456</v>
+      </c>
+      <c r="H18" s="15">
+        <f>SUM(H3:H17)</f>
+        <v>10223</v>
+      </c>
+      <c r="I18" s="15">
+        <f>SUM(I3:I17)</f>
+        <v>10928</v>
+      </c>
+      <c r="J18" s="15">
+        <f>SUM(J3:J17)</f>
+        <v>11468</v>
+      </c>
+      <c r="K18" s="15">
+        <f>SUM(K3:K17)</f>
+        <v>11895</v>
+      </c>
+      <c r="L18" s="15">
+        <f>SUM(L3:L17)</f>
+        <v>11257</v>
+      </c>
+      <c r="M18" s="15">
+        <f>SUM(M4:M17)</f>
+        <v>10407</v>
+      </c>
+      <c r="N18" s="15">
+        <f>SUM(N4:N17)</f>
+        <v>10088</v>
+      </c>
+      <c r="O18" s="15">
+        <f>SUM(O4:O17)</f>
+        <v>9744</v>
+      </c>
+      <c r="P18" s="15">
+        <f>SUM(P4:P17)</f>
+        <v>9975</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>SUM(Q4:Q17)</f>
+        <v>10139</v>
+      </c>
+      <c r="R18" s="15">
+        <f>SUM(R4:R17)</f>
+        <v>10237</v>
+      </c>
+      <c r="S18" s="15">
+        <f>SUM(S4:S17)</f>
+        <v>9963.8000000000011</v>
+      </c>
+      <c r="T18" s="15">
+        <f>SUM(T4:T17)</f>
+        <v>10373</v>
+      </c>
+      <c r="U18" s="15">
+        <f>+Q18*1.01</f>
+        <v>10240.39</v>
+      </c>
+      <c r="V18" s="15">
+        <f>+R18*1.01</f>
+        <v>10339.370000000001</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>20247</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>20405</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>20853</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>27390</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>30578</v>
+      </c>
+      <c r="AP18" s="14">
+        <f>SUM(AP3:AP17)</f>
+        <v>31904</v>
+      </c>
+      <c r="AQ18" s="14">
+        <f>SUM(AQ3:AQ17)</f>
+        <v>34608</v>
+      </c>
+      <c r="AR18" s="14">
+        <f>SUM(AR3:AR17)</f>
+        <v>43075</v>
+      </c>
+      <c r="AS18" s="14">
+        <f>SUM(AS3:AS17)</f>
+        <v>43650</v>
+      </c>
+      <c r="AT18" s="14">
+        <f>SUM(AT3:AT17)</f>
+        <v>40095</v>
+      </c>
+      <c r="AU18" s="14">
+        <f>SUM(AU3:AU17)</f>
+        <v>40916.55999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" s="8" customFormat="1">
+      <c r="B19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>4401</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4947</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4423</v>
+      </c>
+      <c r="J19" s="9">
+        <v>4766</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4987</v>
+      </c>
+      <c r="L19" s="9">
+        <v>4933</v>
+      </c>
+      <c r="M19" s="9">
+        <v>4629</v>
+      </c>
+      <c r="N19" s="9">
+        <f>+N18-N20</f>
+        <v>4474</v>
+      </c>
+      <c r="O19" s="8">
+        <f>+O18-O20</f>
+        <v>4299</v>
+      </c>
+      <c r="P19" s="8">
+        <f>+P18-P20</f>
+        <v>4449</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>+Q18-Q20</f>
+        <v>4555</v>
+      </c>
+      <c r="R19" s="8">
+        <f>+R18-R20</f>
+        <v>4515</v>
+      </c>
+      <c r="S19" s="8">
+        <f>+S18-S20</f>
+        <v>4416.8000000000011</v>
+      </c>
+      <c r="T19" s="8">
+        <f>+T18-T20</f>
+        <v>4564</v>
+      </c>
+      <c r="U19" s="8">
+        <f>+U18-U20</f>
+        <v>4505.7715999999991</v>
+      </c>
+      <c r="V19" s="8">
+        <f>+V18-V20</f>
+        <v>4549.3227999999999</v>
+      </c>
+      <c r="AM19" s="8">
+        <v>9094</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>12409</v>
+      </c>
+      <c r="AO19" s="8">
+        <v>12706</v>
+      </c>
+      <c r="AP19" s="8">
+        <v>13231</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>15003</v>
+      </c>
+      <c r="AR19" s="8">
+        <f>SUM(G19:J19)</f>
+        <v>18537</v>
+      </c>
+      <c r="AS19" s="8">
+        <f>SUM(K19:N19)</f>
+        <v>19023</v>
+      </c>
+      <c r="AT19" s="8">
+        <f>SUM(O19:R19)</f>
+        <v>17818</v>
+      </c>
+      <c r="AU19" s="8">
+        <f>SUM(S19:V19)</f>
+        <v>18035.894399999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" s="8" customFormat="1">
+      <c r="B20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <f>+G18-G19</f>
+        <v>6055</v>
+      </c>
+      <c r="H20" s="9">
+        <f>+H18-H19</f>
+        <v>5276</v>
+      </c>
+      <c r="I20" s="9">
+        <f>+I18-I19</f>
+        <v>6505</v>
+      </c>
+      <c r="J20" s="9">
+        <f>+J18-J19</f>
+        <v>6702</v>
+      </c>
+      <c r="K20" s="9">
+        <f>+K18-K19</f>
+        <v>6908</v>
+      </c>
+      <c r="L20" s="9">
+        <f>+L18-L19</f>
+        <v>6324</v>
+      </c>
+      <c r="M20" s="9">
+        <f>+M18-M19</f>
+        <v>5778</v>
+      </c>
+      <c r="N20" s="9">
+        <v>5614</v>
+      </c>
+      <c r="O20" s="8">
+        <v>5445</v>
+      </c>
+      <c r="P20" s="8">
+        <v>5526</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>5584</v>
+      </c>
+      <c r="R20" s="8">
+        <v>5722</v>
+      </c>
+      <c r="S20" s="8">
+        <v>5547</v>
+      </c>
+      <c r="T20" s="8">
+        <v>5809</v>
+      </c>
+      <c r="U20" s="8">
+        <f>+U18*0.56</f>
+        <v>5734.6184000000003</v>
+      </c>
+      <c r="V20" s="8">
+        <f>+V18*0.56</f>
+        <v>5790.0472000000009</v>
+      </c>
+      <c r="AM20" s="8">
+        <f>+AM18-AM19</f>
+        <v>11759</v>
+      </c>
+      <c r="AN20" s="8">
+        <f>+AN18-AN19</f>
+        <v>14981</v>
+      </c>
+      <c r="AO20" s="8">
+        <f>+AO18-AO19</f>
+        <v>17872</v>
+      </c>
+      <c r="AP20" s="8">
+        <f>+AP18-AP19</f>
+        <v>18673</v>
+      </c>
+      <c r="AQ20" s="8">
+        <f>+AQ18-AQ19</f>
+        <v>19605</v>
+      </c>
+      <c r="AR20" s="8">
+        <f>+AR18-AR19</f>
+        <v>24538</v>
+      </c>
+      <c r="AS20" s="8">
+        <f>+AS18-AS19</f>
+        <v>24627</v>
+      </c>
+      <c r="AT20" s="8">
+        <f>+AT18-AT19</f>
+        <v>22277</v>
+      </c>
+      <c r="AU20" s="8">
+        <f>+AU18-AU19</f>
+        <v>22880.665599999993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" s="8" customFormat="1">
+      <c r="B21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>2783</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2726</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2767</v>
+      </c>
+      <c r="J21" s="9">
+        <v>3048</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2787</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2757</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2731</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2829</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2762</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2718</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>2680</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2689</v>
+      </c>
+      <c r="S21" s="8">
+        <v>2925</v>
+      </c>
+      <c r="T21" s="8">
+        <v>2879</v>
+      </c>
+      <c r="U21" s="8">
+        <f>+Q21</f>
+        <v>2680</v>
+      </c>
+      <c r="V21" s="8">
+        <f>+R21</f>
+        <v>2689</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>6736</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>9182</v>
+      </c>
+      <c r="AO21" s="8">
+        <v>9744</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>9765</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>9696</v>
+      </c>
+      <c r="AR21" s="8">
+        <f>SUM(G21:J21)</f>
+        <v>11324</v>
+      </c>
+      <c r="AS21" s="8">
+        <f>SUM(K21:N21)</f>
+        <v>11104</v>
+      </c>
+      <c r="AT21" s="8">
+        <f>SUM(O21:R21)</f>
+        <v>10849</v>
+      </c>
+      <c r="AU21" s="8">
+        <f>SUM(S21:V21)</f>
+        <v>11173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" s="8" customFormat="1">
+      <c r="B22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>654</v>
+      </c>
+      <c r="H22" s="9">
+        <v>654</v>
+      </c>
+      <c r="I22" s="9">
+        <v>672</v>
+      </c>
+      <c r="J22" s="9">
+        <v>762</v>
+      </c>
+      <c r="K22" s="9">
+        <v>697</v>
+      </c>
+      <c r="L22" s="9">
+        <v>684</v>
+      </c>
+      <c r="M22" s="9">
+        <v>782</v>
+      </c>
+      <c r="N22" s="9">
+        <v>654</v>
+      </c>
+      <c r="O22" s="8">
+        <v>628</v>
+      </c>
+      <c r="P22" s="8">
+        <v>643</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>626</v>
+      </c>
+      <c r="R22" s="8">
+        <v>622</v>
+      </c>
+      <c r="S22" s="8">
+        <v>663</v>
+      </c>
+      <c r="T22" s="8">
+        <v>657</v>
+      </c>
+      <c r="U22" s="8">
+        <f>+Q22</f>
+        <v>626</v>
+      </c>
+      <c r="V22" s="8">
+        <f>+R22</f>
+        <v>622</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>1447</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>2260</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>2300</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>2440</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>2420</v>
+      </c>
+      <c r="AR22" s="8">
+        <f>SUM(G22:J22)</f>
+        <v>2742</v>
+      </c>
+      <c r="AS22" s="8">
+        <f>SUM(K22:N22)</f>
+        <v>2817</v>
+      </c>
+      <c r="AT22" s="8">
+        <f>SUM(O22:R22)</f>
+        <v>2519</v>
+      </c>
+      <c r="AU22" s="8">
+        <f>SUM(S22:V22)</f>
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" s="8" customFormat="1">
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <f>+G21+G22</f>
+        <v>3437</v>
+      </c>
+      <c r="H23" s="9">
+        <f>+H21+H22</f>
+        <v>3380</v>
+      </c>
+      <c r="I23" s="9">
+        <f>+I21+I22</f>
+        <v>3439</v>
+      </c>
+      <c r="J23" s="9">
+        <f>+J21+J22</f>
+        <v>3810</v>
+      </c>
+      <c r="K23" s="9">
+        <f>+K21+K22</f>
+        <v>3484</v>
+      </c>
+      <c r="L23" s="9">
+        <f>+L21+L22</f>
+        <v>3441</v>
+      </c>
+      <c r="M23" s="9">
+        <f>+M21+M22</f>
+        <v>3513</v>
+      </c>
+      <c r="N23" s="9">
+        <f>+N21+N22</f>
+        <v>3483</v>
+      </c>
+      <c r="O23" s="9">
+        <f>+O21+O22</f>
+        <v>3390</v>
+      </c>
+      <c r="P23" s="8">
+        <f>+P21+P22</f>
+        <v>3361</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>+Q21+Q22</f>
+        <v>3306</v>
+      </c>
+      <c r="R23" s="8">
+        <f>+R21+R22</f>
+        <v>3311</v>
+      </c>
+      <c r="S23" s="8">
+        <f>+S21+S22</f>
+        <v>3588</v>
+      </c>
+      <c r="T23" s="8">
+        <f>+T21+T22</f>
+        <v>3536</v>
+      </c>
+      <c r="U23" s="8">
+        <f>+U21+U22</f>
+        <v>3306</v>
+      </c>
+      <c r="V23" s="8">
+        <f>+V21+V22</f>
+        <v>3311</v>
+      </c>
+      <c r="AM23" s="9">
+        <f>+AM21+AM22</f>
+        <v>8183</v>
+      </c>
+      <c r="AN23" s="9">
+        <f>+AN21+AN22</f>
+        <v>11442</v>
+      </c>
+      <c r="AO23" s="9">
+        <f>+AO21+AO22</f>
+        <v>12044</v>
+      </c>
+      <c r="AP23" s="9">
+        <f>+AP21+AP22</f>
+        <v>12205</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f>+AQ21+AQ22</f>
+        <v>12116</v>
+      </c>
+      <c r="AR23" s="9">
+        <f>+AR21+AR22</f>
+        <v>14066</v>
+      </c>
+      <c r="AS23" s="9">
+        <f>+AS21+AS22</f>
+        <v>13921</v>
+      </c>
+      <c r="AT23" s="9">
+        <f>+AT21+AT22</f>
+        <v>13368</v>
+      </c>
+      <c r="AU23" s="9">
+        <f>+AU21+AU22</f>
+        <v>13741</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" s="8" customFormat="1">
+      <c r="B24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <f>+G20-G23</f>
+        <v>2618</v>
+      </c>
+      <c r="H24" s="9">
+        <f>+H20-H23</f>
+        <v>1896</v>
+      </c>
+      <c r="I24" s="9">
+        <f>+I20-I23</f>
+        <v>3066</v>
+      </c>
+      <c r="J24" s="9">
+        <f>+J20-J23</f>
+        <v>2892</v>
+      </c>
+      <c r="K24" s="9">
+        <f>+K20-K23</f>
+        <v>3424</v>
+      </c>
+      <c r="L24" s="9">
+        <f>+L20-L23</f>
+        <v>2883</v>
+      </c>
+      <c r="M24" s="9">
+        <f>+M20-M23</f>
+        <v>2265</v>
+      </c>
+      <c r="N24" s="9">
+        <f>+N20-N23</f>
+        <v>2131</v>
+      </c>
+      <c r="O24" s="9">
+        <f>+O20-O23</f>
+        <v>2055</v>
+      </c>
+      <c r="P24" s="8">
+        <f>+P20-P23</f>
+        <v>2165</v>
+      </c>
+      <c r="Q24" s="8">
+        <f>+Q20-Q23</f>
+        <v>2278</v>
+      </c>
+      <c r="R24" s="8">
+        <f>+R20-R23</f>
+        <v>2411</v>
+      </c>
+      <c r="S24" s="8">
+        <f>+S20-S23</f>
+        <v>1959</v>
+      </c>
+      <c r="T24" s="8">
+        <f>+T20-T23</f>
+        <v>2273</v>
+      </c>
+      <c r="U24" s="8">
+        <f>+U20-U23</f>
+        <v>2428.6184000000003</v>
+      </c>
+      <c r="V24" s="8">
+        <f>+V20-V23</f>
+        <v>2479.0472000000009</v>
+      </c>
+      <c r="AM24" s="9">
+        <f>+AM20-AM23</f>
+        <v>3576</v>
+      </c>
+      <c r="AN24" s="9">
+        <f>+AN20-AN23</f>
+        <v>3539</v>
+      </c>
+      <c r="AO24" s="9">
+        <f>+AO20-AO23</f>
+        <v>5828</v>
+      </c>
+      <c r="AP24" s="9">
+        <f>+AP20-AP23</f>
+        <v>6468</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f>+AQ20-AQ23</f>
+        <v>7489</v>
+      </c>
+      <c r="AR24" s="9">
+        <f>+AR20-AR23</f>
+        <v>10472</v>
+      </c>
+      <c r="AS24" s="9">
+        <f>+AS20-AS23</f>
+        <v>10706</v>
+      </c>
+      <c r="AT24" s="9">
+        <f>+AT20-AT23</f>
+        <v>8909</v>
+      </c>
+      <c r="AU24" s="9">
+        <f>+AU20-AU23</f>
+        <v>9139.665599999993</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47">
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7">
+        <f>-135+11+61</f>
+        <v>-63</v>
+      </c>
+      <c r="H25" s="7">
+        <f>-134+11+79</f>
+        <v>-44</v>
+      </c>
+      <c r="I25" s="7">
+        <f>-133+10+74</f>
+        <v>-49</v>
+      </c>
+      <c r="J25" s="7">
+        <f>-120+63</f>
+        <v>-57</v>
+      </c>
+      <c r="K25" s="7">
+        <f>-131+14+78</f>
+        <v>-39</v>
+      </c>
+      <c r="L25" s="7">
+        <f>-132+26+82</f>
+        <v>-24</v>
+      </c>
+      <c r="M25" s="7">
+        <f>-141+55+93</f>
+        <v>7</v>
+      </c>
+      <c r="N25" s="9">
+        <v>92</v>
+      </c>
+      <c r="O25" s="3">
+        <v>111</v>
+      </c>
+      <c r="P25" s="3">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>106</v>
+      </c>
+      <c r="R25" s="8">
+        <v>118</v>
+      </c>
+      <c r="S25" s="8">
+        <v>137</v>
+      </c>
+      <c r="T25" s="8">
+        <v>135</v>
+      </c>
+      <c r="U25" s="8">
+        <f>+T25</f>
+        <v>135</v>
+      </c>
+      <c r="V25" s="8">
+        <f>+U25</f>
+        <v>135</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>-99+786</f>
+        <v>687</v>
+      </c>
+      <c r="AN25" s="8">
+        <f>-904+124-1413</f>
+        <v>-2193</v>
+      </c>
+      <c r="AO25" s="3">
+        <f>-826+105+139</f>
+        <v>-582</v>
+      </c>
+      <c r="AP25" s="3">
+        <f>-670+94+191</f>
+        <v>-385</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f>-546+46+103</f>
+        <v>-397</v>
+      </c>
+      <c r="AR25" s="8">
+        <f>SUM(G25:J25)</f>
+        <v>-213</v>
+      </c>
+      <c r="AS25" s="8">
+        <f>SUM(K25:N25)</f>
+        <v>36</v>
+      </c>
+      <c r="AT25" s="8">
+        <f>SUM(O25:R25)</f>
+        <v>454</v>
+      </c>
+      <c r="AU25" s="8">
+        <f>SUM(S25:V25)</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47">
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="9">
+        <f>+G24+G25</f>
+        <v>2555</v>
+      </c>
+      <c r="H26" s="9">
+        <f>+H24+H25</f>
+        <v>1852</v>
+      </c>
+      <c r="I26" s="9">
+        <f>+I24+I25</f>
+        <v>3017</v>
+      </c>
+      <c r="J26" s="9">
+        <f>+J24+J25</f>
+        <v>2835</v>
+      </c>
+      <c r="K26" s="9">
+        <f>+K24+K25</f>
+        <v>3385</v>
+      </c>
+      <c r="L26" s="9">
+        <f>+L24+L25</f>
+        <v>2859</v>
+      </c>
+      <c r="M26" s="9">
+        <f>+M24+M25</f>
+        <v>2272</v>
+      </c>
+      <c r="N26" s="9">
+        <f>+N24+N25</f>
+        <v>2223</v>
+      </c>
+      <c r="O26" s="9">
+        <f>+O24+O25</f>
+        <v>2166</v>
+      </c>
+      <c r="P26" s="8">
+        <f>+P24+P25</f>
+        <v>2284</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>+Q24+Q25</f>
+        <v>2384</v>
+      </c>
+      <c r="R26" s="8">
+        <f>+R24+R25</f>
+        <v>2529</v>
+      </c>
+      <c r="S26" s="8">
+        <f>+S24+S25</f>
+        <v>2096</v>
+      </c>
+      <c r="T26" s="8">
+        <f>+T24+T25</f>
+        <v>2408</v>
+      </c>
+      <c r="U26" s="8">
+        <f>+U24+U25</f>
+        <v>2563.6184000000003</v>
+      </c>
+      <c r="V26" s="8">
+        <f>+V24+V25</f>
+        <v>2614.0472000000009</v>
+      </c>
+      <c r="AM26" s="8">
+        <f>+AM24+AM25</f>
+        <v>4263</v>
+      </c>
+      <c r="AN26" s="8">
+        <f>+AN24+AN25</f>
+        <v>1346</v>
+      </c>
+      <c r="AO26" s="8">
+        <f>+AO24+AO25</f>
+        <v>5246</v>
+      </c>
+      <c r="AP26" s="8">
+        <f>+AP24+AP25</f>
+        <v>6083</v>
+      </c>
+      <c r="AQ26" s="8">
+        <f>+AQ24+AQ25</f>
+        <v>7092</v>
+      </c>
+      <c r="AR26" s="8">
+        <f>+AR24+AR25</f>
+        <v>10259</v>
+      </c>
+      <c r="AS26" s="8">
+        <f>+AS24+AS25</f>
+        <v>10742</v>
+      </c>
+      <c r="AT26" s="8">
+        <f>+AT24+AT25</f>
+        <v>9363</v>
+      </c>
+      <c r="AU26" s="8">
+        <f>+AU24+AU25</f>
+        <v>9681.665599999993</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47">
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="7">
+        <v>250</v>
+      </c>
+      <c r="H27" s="7">
+        <v>159</v>
+      </c>
+      <c r="I27" s="7">
+        <v>393</v>
+      </c>
+      <c r="J27" s="7">
+        <v>398</v>
+      </c>
+      <c r="K27" s="7">
+        <v>429</v>
+      </c>
+      <c r="L27" s="7">
+        <v>334</v>
+      </c>
+      <c r="M27" s="7">
+        <v>323</v>
+      </c>
+      <c r="N27" s="9">
+        <v>360</v>
+      </c>
+      <c r="O27" s="7">
+        <v>295</v>
+      </c>
+      <c r="P27" s="3">
+        <v>309</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>325</v>
+      </c>
+      <c r="R27" s="3">
+        <v>341</v>
+      </c>
+      <c r="S27" s="3">
+        <v>306</v>
+      </c>
+      <c r="T27" s="3">
+        <v>353</v>
+      </c>
+      <c r="U27" s="8">
+        <f>+U26*0.15</f>
+        <v>384.54276000000004</v>
+      </c>
+      <c r="V27" s="8">
+        <f>+V26*0.15</f>
+        <v>392.10708000000011</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>350</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>539</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>390</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>497</v>
+      </c>
+      <c r="AR27" s="8">
+        <f>SUM(G27:J27)</f>
+        <v>1200</v>
+      </c>
+      <c r="AS27" s="8">
+        <f>SUM(K27:N27)</f>
+        <v>1446</v>
+      </c>
+      <c r="AT27" s="8">
+        <f>SUM(O27:R27)</f>
+        <v>1270</v>
+      </c>
+      <c r="AU27" s="8">
+        <f>SUM(S27:V27)</f>
+        <v>1435.64984</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47">
+      <c r="B28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="9">
+        <f>+G26-G27</f>
+        <v>2305</v>
+      </c>
+      <c r="H28" s="9">
+        <f>+H26-H27</f>
+        <v>1693</v>
+      </c>
+      <c r="I28" s="9">
+        <f>+I26-I27</f>
+        <v>2624</v>
+      </c>
+      <c r="J28" s="9">
+        <f>+J26-J27</f>
+        <v>2437</v>
+      </c>
+      <c r="K28" s="9">
+        <f>+K26-K27</f>
+        <v>2956</v>
+      </c>
+      <c r="L28" s="9">
+        <f>+L26-L27</f>
+        <v>2525</v>
+      </c>
+      <c r="M28" s="9">
+        <f>+M26-M27</f>
+        <v>1949</v>
+      </c>
+      <c r="N28" s="9">
+        <f>+N26-N27</f>
+        <v>1863</v>
+      </c>
+      <c r="O28" s="9">
+        <f>+O26-O27</f>
+        <v>1871</v>
+      </c>
+      <c r="P28" s="8">
+        <f>+P26-P27</f>
+        <v>1975</v>
+      </c>
+      <c r="Q28" s="8">
+        <f>+Q26-Q27</f>
+        <v>2059</v>
+      </c>
+      <c r="R28" s="8">
+        <f>+R26-R27</f>
+        <v>2188</v>
+      </c>
+      <c r="S28" s="8">
+        <f>+S26-S27</f>
+        <v>1790</v>
+      </c>
+      <c r="T28" s="8">
+        <f>+T26-T27</f>
+        <v>2055</v>
+      </c>
+      <c r="U28" s="8">
+        <f>+U26-U27</f>
+        <v>2179.07564</v>
+      </c>
+      <c r="V28" s="8">
+        <f>+V26-V27</f>
+        <v>2221.9401200000007</v>
+      </c>
+      <c r="AM28" s="8">
+        <f>+AM26-AM27</f>
+        <v>3913</v>
+      </c>
+      <c r="AN28" s="8">
+        <f>+AN26-AN27</f>
+        <v>1346</v>
+      </c>
+      <c r="AO28" s="8">
+        <f>+AO26-AO27</f>
+        <v>4707</v>
+      </c>
+      <c r="AP28" s="8">
+        <f>+AP26-AP27</f>
+        <v>5693</v>
+      </c>
+      <c r="AQ28" s="8">
+        <f>+AQ26-AQ27</f>
+        <v>6595</v>
+      </c>
+      <c r="AR28" s="8">
+        <f>+AR26-AR27</f>
+        <v>9059</v>
+      </c>
+      <c r="AS28" s="8">
+        <f>+AS26-AS27</f>
+        <v>9296</v>
+      </c>
+      <c r="AT28" s="8">
+        <f>+AT26-AT27</f>
+        <v>8093</v>
+      </c>
+      <c r="AU28" s="8">
+        <f>+AU26-AU27</f>
+        <v>8246.015759999993</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47">
+      <c r="B29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="10" t="e">
+        <f>+G28/G30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="10">
+        <f>+H28/H30</f>
+        <v>0.94408064779657819</v>
+      </c>
+      <c r="I29" s="10">
+        <f>+I28/I30</f>
+        <v>1.4667420160659677</v>
+      </c>
+      <c r="J29" s="10">
+        <f>+J28/J30</f>
+        <v>1.3675645342312008</v>
+      </c>
+      <c r="K29" s="10">
+        <f>+K28/K30</f>
+        <v>1.6657819313377762</v>
+      </c>
+      <c r="L29" s="10">
+        <f>+L28/L30</f>
+        <v>1.4302197213988626</v>
+      </c>
+      <c r="M29" s="10">
+        <f>+M28/M30</f>
+        <v>1.1050926684557563</v>
+      </c>
+      <c r="N29" s="10">
+        <f>+N28/N30</f>
+        <v>1.0621436716077537</v>
+      </c>
+      <c r="O29" s="10">
+        <f>+O28/O30</f>
+        <v>1.0679223744292237</v>
+      </c>
+      <c r="P29" s="11">
+        <f>+P28/P30</f>
+        <v>1.1279268989149058</v>
+      </c>
+      <c r="Q29" s="11">
+        <f>+Q28/Q30</f>
+        <v>1.1779176201372998</v>
+      </c>
+      <c r="R29" s="11">
+        <f>+R28/R30</f>
+        <v>1.2517162471395882</v>
+      </c>
+      <c r="S29" s="11">
+        <f>+S28/S30</f>
+        <v>1.0228571428571429</v>
+      </c>
+      <c r="T29" s="11">
+        <f>+T28/T30</f>
+        <v>1.1736150770988008</v>
+      </c>
+      <c r="U29" s="11">
+        <f>+U28/U30</f>
+        <v>1.2444749514563107</v>
+      </c>
+      <c r="V29" s="11">
+        <f>+V28/V30</f>
+        <v>1.268954951456311</v>
+      </c>
+      <c r="AM29" s="11">
+        <f>+AM28/AM30</f>
+        <v>2.6385704652730952</v>
+      </c>
+      <c r="AN29" s="11">
+        <f>+AN28/AN30</f>
+        <v>0.76958261863922239</v>
+      </c>
+      <c r="AO29" s="11">
+        <f>+AO28/AO30</f>
+        <v>2.659322033898305</v>
+      </c>
+      <c r="AP29" s="11">
+        <f>+AP28/AP30</f>
+        <v>3.1965188096574959</v>
+      </c>
+      <c r="AQ29" s="11">
+        <f>+AQ28/AQ30</f>
+        <v>3.692609182530795</v>
+      </c>
+      <c r="AR29" s="11">
+        <f>+AR28/AR30</f>
+        <v>5.0662922391419682</v>
+      </c>
+      <c r="AS29" s="11">
+        <f>+AS28/AS30</f>
+        <v>5.2686032675428587</v>
+      </c>
+      <c r="AT29" s="11">
+        <f>+AT28/AT30</f>
+        <v>4.625232176025146</v>
+      </c>
+      <c r="AU29" s="11">
+        <f>+AU28/AU30</f>
+        <v>4.7099904383835458</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" s="8" customFormat="1">
+      <c r="B30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>1793.279</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1788.999</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1782</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1774.5419999999999</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1765.463</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1763.653</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1754</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1752</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1751</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>1748</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1748</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1750</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1751</v>
+      </c>
+      <c r="U30" s="8">
+        <f>+T30</f>
+        <v>1751</v>
+      </c>
+      <c r="V30" s="8">
+        <f>+U30</f>
+        <v>1751</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>1483</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>1749</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>1770</v>
+      </c>
+      <c r="AP30" s="8">
+        <v>1781</v>
+      </c>
+      <c r="AQ30" s="8">
+        <v>1786</v>
+      </c>
+      <c r="AR30" s="8">
+        <f>AVERAGE(G30:J30)</f>
+        <v>1788.0926666666667</v>
+      </c>
+      <c r="AS30" s="8">
+        <f>AVERAGE(K30:N30)</f>
+        <v>1764.4145000000001</v>
+      </c>
+      <c r="AT30" s="8">
+        <f>AVERAGE(O30:R30)</f>
+        <v>1749.75</v>
+      </c>
+      <c r="AU30" s="8">
+        <f>AVERAGE(S30:V30)</f>
+        <v>1750.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" s="16" customFormat="1" ht="15">
+      <c r="B32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18">
+        <f>K18/G18-1</f>
+        <v>0.13762433052792655</v>
+      </c>
+      <c r="L32" s="18">
+        <f>L18/H18-1</f>
+        <v>0.10114447813753302</v>
+      </c>
+      <c r="M32" s="18">
+        <f>M18/I18-1</f>
+        <v>-4.767569546120054E-2</v>
+      </c>
+      <c r="N32" s="18">
+        <f>N18/J18-1</f>
+        <v>-0.12033484478549006</v>
+      </c>
+      <c r="O32" s="19">
+        <f>+O18/K18-1</f>
+        <v>-0.18083228247162675</v>
+      </c>
+      <c r="P32" s="19">
+        <f>+P18/L18-1</f>
+        <v>-0.11388469396819756</v>
+      </c>
+      <c r="Q32" s="19">
+        <f>+Q18/M18-1</f>
+        <v>-2.57518977611223E-2</v>
+      </c>
+      <c r="R32" s="19">
+        <f>+R18/N18-1</f>
+        <v>1.4770023790642295E-2</v>
+      </c>
+      <c r="S32" s="19">
+        <f>+S18/O18-1</f>
+        <v>2.2557471264367912E-2</v>
+      </c>
+      <c r="T32" s="19">
+        <f>+T18/P18-1</f>
+        <v>3.9899749373433657E-2</v>
+      </c>
+      <c r="U32" s="19">
+        <f>+U18/Q18-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="V32" s="19">
+        <f>+V18/R18-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AL32" s="19">
+        <f>+AL18/AK18-1</f>
+        <v>7.8036252284288121E-3</v>
+      </c>
+      <c r="AM32" s="19">
+        <f>+AM18/AL18-1</f>
+        <v>2.1955403087478453E-2</v>
+      </c>
+      <c r="AN32" s="19">
+        <f>+AN18/AM18-1</f>
+        <v>0.31348007480938</v>
+      </c>
+      <c r="AO32" s="19">
+        <f>+AO18/AN18-1</f>
+        <v>0.11639284410368744</v>
+      </c>
+      <c r="AP32" s="19">
+        <f>+AP18/AO18-1</f>
+        <v>4.3364510432337022E-2</v>
+      </c>
+      <c r="AQ32" s="19">
+        <f>+AQ18/AP18-1</f>
+        <v>8.4754262788365065E-2</v>
+      </c>
+      <c r="AR32" s="19">
+        <f>+AR18/AQ18-1</f>
+        <v>0.2446544151641239</v>
+      </c>
+      <c r="AS32" s="19">
+        <f>+AS18/AR18-1</f>
+        <v>1.3348810214741658E-2</v>
+      </c>
+      <c r="AT32" s="19">
+        <f>+AT18/AS18-1</f>
+        <v>-8.1443298969072209E-2</v>
+      </c>
+      <c r="AU32" s="19">
+        <f>+AU18/AT18-1</f>
+        <v>2.0490335453298147E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:47">
+      <c r="B33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="12">
+        <f>+G20/G18</f>
+        <v>0.57909334353481257</v>
+      </c>
+      <c r="H33" s="12">
+        <f>+H20/H18</f>
+        <v>0.51609116697642565</v>
+      </c>
+      <c r="I33" s="12">
+        <f>+I20/I18</f>
+        <v>0.59525988286969256</v>
+      </c>
+      <c r="J33" s="12">
+        <f>+J20/J18</f>
+        <v>0.58440878967561916</v>
+      </c>
+      <c r="K33" s="12">
+        <f>+K20/K18</f>
+        <v>0.58074821353509876</v>
+      </c>
+      <c r="L33" s="12">
+        <f>+L20/L18</f>
+        <v>0.56178377898196674</v>
+      </c>
+      <c r="M33" s="12">
+        <f>+M20/M18</f>
+        <v>0.55520322859613724</v>
+      </c>
+      <c r="N33" s="12">
+        <f>+N20/N18</f>
+        <v>0.55650277557494054</v>
+      </c>
+      <c r="O33" s="13">
+        <f>+O20/O18</f>
+        <v>0.55880541871921185</v>
+      </c>
+      <c r="P33" s="13">
+        <f>+P20/P18</f>
+        <v>0.55398496240601502</v>
+      </c>
+      <c r="Q33" s="13">
+        <f>+Q20/Q18</f>
+        <v>0.55074464937370549</v>
+      </c>
+      <c r="R33" s="13">
+        <f>+R20/R18</f>
+        <v>0.55895281820845955</v>
+      </c>
+      <c r="S33" s="13">
+        <f>+S20/S18</f>
+        <v>0.55671530942010072</v>
+      </c>
+      <c r="T33" s="13">
+        <f>+T20/T18</f>
+        <v>0.56001156849513156</v>
+      </c>
+      <c r="U33" s="13">
+        <f>+U20/U18</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V33" s="13">
+        <f>+V20/V18</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM33" s="13">
+        <f>+AM20/AM18</f>
+        <v>0.56389967870330404</v>
+      </c>
+      <c r="AN33" s="13">
+        <f>+AN20/AN18</f>
+        <v>0.54695144213216507</v>
+      </c>
+      <c r="AO33" s="13">
+        <f>+AO20/AO18</f>
+        <v>0.58447249656615863</v>
+      </c>
+      <c r="AP33" s="13">
+        <f>+AP20/AP18</f>
+        <v>0.58528711133400202</v>
+      </c>
+      <c r="AQ33" s="13">
+        <f>+AQ20/AQ18</f>
+        <v>0.56648751733703195</v>
+      </c>
+      <c r="AR33" s="13">
+        <f>+AR20/AR18</f>
+        <v>0.56965757399883921</v>
+      </c>
+      <c r="AS33" s="13">
+        <f>+AS20/AS18</f>
+        <v>0.56419243986254297</v>
+      </c>
+      <c r="AT33" s="13">
+        <f>+AT20/AT18</f>
+        <v>0.55560543708691856</v>
+      </c>
+      <c r="AU33" s="13">
+        <f>+AU20/AU18</f>
+        <v>0.55920306105889639</v>
+      </c>
+    </row>
+    <row r="35" spans="2:47">
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="9">
+        <f>+M36-M50</f>
+        <v>-5743</v>
+      </c>
+    </row>
+    <row r="36" spans="2:47" s="8" customFormat="1">
+      <c r="B36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9">
+        <f>9594+313+764</f>
+        <v>10671</v>
+      </c>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:47" s="8" customFormat="1">
+      <c r="B37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9">
+        <v>6408</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:47" s="8" customFormat="1">
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9">
+        <v>5734</v>
+      </c>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:47" s="8" customFormat="1">
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9">
+        <v>2796</v>
+      </c>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:47" s="8" customFormat="1">
+      <c r="B40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9">
+        <v>8689</v>
+      </c>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:47" s="8" customFormat="1">
+      <c r="B41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9">
+        <f>10850+22284</f>
+        <v>33134</v>
+      </c>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:47" s="8" customFormat="1">
+      <c r="B42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9">
+        <v>5369</v>
+      </c>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:47" s="8" customFormat="1">
+      <c r="B43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9">
+        <f>SUM(M36:M42)</f>
+        <v>72801</v>
+      </c>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:47" s="8" customFormat="1">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:47" s="8" customFormat="1">
+      <c r="B45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9">
+        <v>4133</v>
+      </c>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:47" s="8" customFormat="1">
+      <c r="B46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9">
+        <v>1426</v>
+      </c>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:47" s="8" customFormat="1">
+      <c r="B47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9">
+        <v>5475</v>
+      </c>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:47" s="8" customFormat="1">
+      <c r="B48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9">
+        <f>820</f>
+        <v>820</v>
+      </c>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" s="8" customFormat="1">
+      <c r="B49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9">
+        <v>394</v>
+      </c>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" s="8" customFormat="1">
+      <c r="B50" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <f>1500+12625</f>
-        <v>14125</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <f>C6-C7+C8</f>
-        <v>230600.6</v>
-      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9">
+        <f>1117+15297</f>
+        <v>16414</v>
+      </c>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" s="8" customFormat="1">
+      <c r="B51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9">
+        <v>8255</v>
+      </c>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" s="8" customFormat="1">
+      <c r="B52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9">
+        <f>35884</f>
+        <v>35884</v>
+      </c>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" s="8" customFormat="1">
+      <c r="B53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9">
+        <f>SUM(M45:M52)</f>
+        <v>72801</v>
+      </c>
+      <c r="N53" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AR3:AU17 AR27:AU30" formulaRange="1"/>
+    <ignoredError sqref="AR18:AU26" formula="1" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4BFCA-4E0B-4279-9473-C648D951BFDF}">
+  <dimension ref="H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:8">
+      <c r="H1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ABT_Model.xlsx
+++ b/ABT_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A453C2-F1C3-495C-91DF-D6A54CFCBFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E92C88-4986-4A8E-9EB9-546468742098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41535" yWindow="2160" windowWidth="14295" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -643,10 +643,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1355,103 +1351,103 @@
         <v>2005</v>
       </c>
       <c r="AC2" s="3">
-        <f>+AB2+1</f>
+        <f t="shared" ref="AC2:BA2" si="0">+AB2+1</f>
         <v>2006</v>
       </c>
       <c r="AD2" s="3">
-        <f>+AC2+1</f>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="AE2" s="3">
-        <f>+AD2+1</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="AF2" s="3">
-        <f>+AE2+1</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="AG2" s="3">
-        <f>+AF2+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="AH2" s="3">
-        <f>+AG2+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="AI2" s="3">
-        <f>+AH2+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="AJ2" s="3">
-        <f>+AI2+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="AK2" s="3">
-        <f>+AJ2+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="AL2" s="3">
-        <f>+AK2+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="AM2" s="3">
-        <f>+AL2+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="AN2" s="3">
-        <f>+AM2+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="AO2" s="3">
-        <f>+AN2+1</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="AP2" s="3">
-        <f>+AO2+1</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="AQ2" s="3">
-        <f>+AP2+1</f>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="AR2" s="3">
-        <f>+AQ2+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="AS2" s="3">
-        <f>+AR2+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="AT2" s="3">
-        <f>+AS2+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="AU2" s="3">
-        <f>+AT2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="AV2" s="3">
-        <f>+AU2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="AW2" s="3">
-        <f>+AV2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="AX2" s="3">
-        <f>+AW2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="AY2" s="3">
-        <f>+AX2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="AZ2" s="3">
-        <f>+AY2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="BA2" s="3">
-        <f>+AZ2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
@@ -1494,19 +1490,19 @@
         <v>66</v>
       </c>
       <c r="AR3" s="8">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" ref="AR3:AR17" si="1">SUM(G3:J3)</f>
         <v>52</v>
       </c>
       <c r="AS3" s="8">
-        <f>SUM(K3:N3)</f>
+        <f t="shared" ref="AS3:AS17" si="2">SUM(K3:N3)</f>
         <v>8</v>
       </c>
       <c r="AT3" s="8">
-        <f>SUM(O3:R3)</f>
+        <f t="shared" ref="AT3:AT17" si="3">SUM(O3:R3)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="8">
-        <f>SUM(S3:V3)</f>
+        <f t="shared" ref="AU3:AU17" si="4">SUM(S3:V3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1561,11 +1557,11 @@
         <v>1294</v>
       </c>
       <c r="U4" s="9">
-        <f>+Q4*1.01</f>
+        <f t="shared" ref="U4:U18" si="5">+Q4*1.01</f>
         <v>1381.68</v>
       </c>
       <c r="V4" s="9">
-        <f>+R4*1.01</f>
+        <f t="shared" ref="V4:V18" si="6">+R4*1.01</f>
         <v>1234.22</v>
       </c>
       <c r="AN4" s="8">
@@ -1585,19 +1581,19 @@
         <v>4303</v>
       </c>
       <c r="AR4" s="8">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="1"/>
         <v>4718</v>
       </c>
       <c r="AS4" s="8">
-        <f>SUM(K4:N4)</f>
+        <f t="shared" si="2"/>
         <v>4912</v>
       </c>
       <c r="AT4" s="8">
-        <f>SUM(O4:R4)</f>
+        <f t="shared" si="3"/>
         <v>5066</v>
       </c>
       <c r="AU4" s="8">
-        <f>SUM(S4:V4)</f>
+        <f t="shared" si="4"/>
         <v>5136.3</v>
       </c>
     </row>
@@ -1652,11 +1648,11 @@
         <v>156</v>
       </c>
       <c r="U5" s="9">
-        <f>+Q5*1.01</f>
+        <f t="shared" si="5"/>
         <v>141.4</v>
       </c>
       <c r="V5" s="9">
-        <f>+R5*1.01</f>
+        <f t="shared" si="6"/>
         <v>150.49</v>
       </c>
       <c r="AN5" s="8">
@@ -1672,19 +1668,19 @@
         <v>516</v>
       </c>
       <c r="AR5" s="8">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="1"/>
         <v>536</v>
       </c>
       <c r="AS5" s="8">
-        <f>SUM(K5:N5)</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="AT5" s="8">
-        <f>SUM(O5:R5)</f>
+        <f t="shared" si="3"/>
         <v>565</v>
       </c>
       <c r="AU5" s="8">
-        <f>SUM(S5:V5)</f>
+        <f t="shared" si="4"/>
         <v>587.29</v>
       </c>
     </row>
@@ -1739,11 +1735,11 @@
         <v>127</v>
       </c>
       <c r="U6" s="9">
-        <f>+Q6*1.01</f>
+        <f t="shared" si="5"/>
         <v>134.33000000000001</v>
       </c>
       <c r="V6" s="9">
-        <f>+R6*1.01</f>
+        <f t="shared" si="6"/>
         <v>154.53</v>
       </c>
       <c r="AN6" s="8">
@@ -1759,19 +1755,19 @@
         <v>1438</v>
       </c>
       <c r="AR6" s="8">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="1"/>
         <v>1427</v>
       </c>
       <c r="AS6" s="8">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" si="2"/>
         <v>995</v>
       </c>
       <c r="AT6" s="8">
-        <f>SUM(O6:R6)</f>
+        <f t="shared" si="3"/>
         <v>574</v>
       </c>
       <c r="AU6" s="8">
-        <f>SUM(S6:V6)</f>
+        <f t="shared" si="4"/>
         <v>545.26</v>
       </c>
     </row>
@@ -1826,11 +1822,11 @@
         <v>1329</v>
       </c>
       <c r="U7" s="9">
-        <f>+Q7*1.01</f>
+        <f t="shared" si="5"/>
         <v>1327.14</v>
       </c>
       <c r="V7" s="9">
-        <f>+R7*1.01</f>
+        <f t="shared" si="6"/>
         <v>1383.7</v>
       </c>
       <c r="AN7" s="8">
@@ -1846,19 +1842,19 @@
         <v>4475</v>
       </c>
       <c r="AR7" s="8">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="1"/>
         <v>5128</v>
       </c>
       <c r="AS7" s="8">
-        <f>SUM(K7:N7)</f>
+        <f t="shared" si="2"/>
         <v>4888</v>
       </c>
       <c r="AT7" s="8">
-        <f>SUM(O7:R7)</f>
+        <f t="shared" si="3"/>
         <v>5159</v>
       </c>
       <c r="AU7" s="8">
-        <f>SUM(S7:V7)</f>
+        <f t="shared" si="4"/>
         <v>5245.24</v>
       </c>
     </row>
@@ -1913,11 +1909,11 @@
         <v>583</v>
       </c>
       <c r="U8" s="9">
-        <f>+Q8*1.01</f>
+        <f t="shared" si="5"/>
         <v>870.62</v>
       </c>
       <c r="V8" s="9">
-        <f>+R8*1.01</f>
+        <f t="shared" si="6"/>
         <v>870.62</v>
       </c>
       <c r="AN8" s="8">
@@ -1933,19 +1929,19 @@
         <v>4376</v>
       </c>
       <c r="AR8" s="8">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="1"/>
         <v>8553</v>
       </c>
       <c r="AS8" s="8">
-        <f>SUM(K8:N8)</f>
+        <f t="shared" si="2"/>
         <v>10176</v>
       </c>
       <c r="AT8" s="8">
-        <f>SUM(O8:R8)</f>
+        <f t="shared" si="3"/>
         <v>3690</v>
       </c>
       <c r="AU8" s="8">
-        <f>SUM(S8:V8)</f>
+        <f t="shared" si="4"/>
         <v>3065.64</v>
       </c>
     </row>
@@ -2000,11 +1996,11 @@
         <v>1059</v>
       </c>
       <c r="U9" s="9">
-        <f>+Q9*1.01</f>
+        <f t="shared" si="5"/>
         <v>1011.01</v>
       </c>
       <c r="V9" s="9">
-        <f>+R9*1.01</f>
+        <f t="shared" si="6"/>
         <v>994.85</v>
       </c>
       <c r="AN9" s="8">
@@ -2024,19 +2020,19 @@
         <v>4127</v>
       </c>
       <c r="AR9" s="8">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="1"/>
         <v>4298</v>
       </c>
       <c r="AS9" s="8">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="2"/>
         <v>3481</v>
       </c>
       <c r="AT9" s="8">
-        <f>SUM(O9:R9)</f>
+        <f t="shared" si="3"/>
         <v>3934</v>
       </c>
       <c r="AU9" s="8">
-        <f>SUM(S9:V9)</f>
+        <f t="shared" si="4"/>
         <v>4074.2599999999998</v>
       </c>
     </row>
@@ -2091,11 +2087,11 @@
         <v>1091</v>
       </c>
       <c r="U10" s="9">
-        <f>+Q10*1.01</f>
+        <f t="shared" si="5"/>
         <v>1082.72</v>
       </c>
       <c r="V10" s="9">
-        <f>+R10*1.01</f>
+        <f t="shared" si="6"/>
         <v>1063.53</v>
       </c>
       <c r="AN10" s="8">
@@ -2115,19 +2111,19 @@
         <v>3520</v>
       </c>
       <c r="AR10" s="8">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="1"/>
         <v>3996</v>
       </c>
       <c r="AS10" s="8">
-        <f>SUM(K10:N10)</f>
+        <f t="shared" si="2"/>
         <v>3978</v>
       </c>
       <c r="AT10" s="8">
-        <f>SUM(O10:R10)</f>
+        <f t="shared" si="3"/>
         <v>4220</v>
       </c>
       <c r="AU10" s="8">
-        <f>SUM(S10:V10)</f>
+        <f t="shared" si="4"/>
         <v>4296.6499999999996</v>
       </c>
     </row>
@@ -2182,11 +2178,11 @@
         <v>243</v>
       </c>
       <c r="U11" s="9">
-        <f>+Q11*1.01</f>
+        <f t="shared" si="5"/>
         <v>229.27</v>
       </c>
       <c r="V11" s="9">
-        <f>+R11*1.01</f>
+        <f t="shared" si="6"/>
         <v>242.4</v>
       </c>
       <c r="AN11" s="8">
@@ -2202,19 +2198,19 @@
         <v>702</v>
       </c>
       <c r="AR11" s="8">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="1"/>
         <v>781</v>
       </c>
       <c r="AS11" s="8">
-        <f>SUM(K11:N11)</f>
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
       <c r="AT11" s="8">
-        <f>SUM(O11:R11)</f>
+        <f t="shared" si="3"/>
         <v>890</v>
       </c>
       <c r="AU11" s="8">
-        <f>SUM(S11:V11)</f>
+        <f t="shared" si="4"/>
         <v>940.67</v>
       </c>
     </row>
@@ -2269,11 +2265,11 @@
         <v>321</v>
       </c>
       <c r="U12" s="9">
-        <f>+Q12*1.01</f>
+        <f t="shared" si="5"/>
         <v>286.83999999999997</v>
       </c>
       <c r="V12" s="9">
-        <f>+R12*1.01</f>
+        <f t="shared" si="6"/>
         <v>304.01</v>
       </c>
       <c r="AN12" s="8">
@@ -2289,19 +2285,19 @@
         <v>740</v>
       </c>
       <c r="AR12" s="8">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="1"/>
         <v>889</v>
       </c>
       <c r="AS12" s="8">
-        <f>SUM(K12:N12)</f>
+        <f t="shared" si="2"/>
         <v>920</v>
       </c>
       <c r="AT12" s="8">
-        <f>SUM(O12:R12)</f>
+        <f t="shared" si="3"/>
         <v>1161</v>
       </c>
       <c r="AU12" s="8">
-        <f>SUM(S12:V12)</f>
+        <f t="shared" si="4"/>
         <v>1216.8499999999999</v>
       </c>
     </row>
@@ -2356,11 +2352,11 @@
         <v>564</v>
       </c>
       <c r="U13" s="9">
-        <f>+Q13*1.01</f>
+        <f t="shared" si="5"/>
         <v>491.87</v>
       </c>
       <c r="V13" s="9">
-        <f>+R13*1.01</f>
+        <f t="shared" si="6"/>
         <v>502.98</v>
       </c>
       <c r="AN13" s="8">
@@ -2376,19 +2372,19 @@
         <v>1247</v>
       </c>
       <c r="AR13" s="8">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="1"/>
         <v>1610</v>
       </c>
       <c r="AS13" s="8">
-        <f>SUM(K13:N13)</f>
+        <f t="shared" si="2"/>
         <v>1712</v>
       </c>
       <c r="AT13" s="8">
-        <f>SUM(O13:R13)</f>
+        <f t="shared" si="3"/>
         <v>1944</v>
       </c>
       <c r="AU13" s="8">
-        <f>SUM(S13:V13)</f>
+        <f t="shared" si="4"/>
         <v>2073.85</v>
       </c>
     </row>
@@ -2443,11 +2439,11 @@
         <v>627</v>
       </c>
       <c r="U14" s="9">
-        <f>+Q14*1.01</f>
+        <f t="shared" si="5"/>
         <v>549.44000000000005</v>
       </c>
       <c r="V14" s="9">
-        <f>+R14*1.01</f>
+        <f t="shared" si="6"/>
         <v>598.92999999999995</v>
       </c>
       <c r="AN14" s="8">
@@ -2463,19 +2459,19 @@
         <v>1578</v>
       </c>
       <c r="AR14" s="8">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="1"/>
         <v>1907</v>
       </c>
       <c r="AS14" s="8">
-        <f>SUM(K14:N14)</f>
+        <f t="shared" si="2"/>
         <v>1927</v>
       </c>
       <c r="AT14" s="8">
-        <f>SUM(O14:R14)</f>
+        <f t="shared" si="3"/>
         <v>2195</v>
       </c>
       <c r="AU14" s="8">
-        <f>SUM(S14:V14)</f>
+        <f t="shared" si="4"/>
         <v>2362.37</v>
       </c>
     </row>
@@ -2530,11 +2526,11 @@
         <v>607</v>
       </c>
       <c r="U15" s="9">
-        <f>+Q15*1.01</f>
+        <f t="shared" si="5"/>
         <v>568.63</v>
       </c>
       <c r="V15" s="9">
-        <f>+R15*1.01</f>
+        <f t="shared" si="6"/>
         <v>587.82000000000005</v>
       </c>
       <c r="AN15" s="8">
@@ -2550,19 +2546,19 @@
         <v>1914</v>
       </c>
       <c r="AR15" s="8">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="1"/>
         <v>2198</v>
       </c>
       <c r="AS15" s="8">
-        <f>SUM(K15:N15)</f>
+        <f t="shared" si="2"/>
         <v>2119</v>
       </c>
       <c r="AT15" s="8">
-        <f>SUM(O15:R15)</f>
+        <f t="shared" si="3"/>
         <v>2255</v>
       </c>
       <c r="AU15" s="8">
-        <f>SUM(S15:V15)</f>
+        <f t="shared" si="4"/>
         <v>2325.4500000000003</v>
       </c>
     </row>
@@ -2617,11 +2613,11 @@
         <v>724</v>
       </c>
       <c r="U16" s="9">
-        <f>+Q16*1.01</f>
+        <f t="shared" si="5"/>
         <v>678.72</v>
       </c>
       <c r="V16" s="9">
-        <f>+R16*1.01</f>
+        <f t="shared" si="6"/>
         <v>683.77</v>
       </c>
       <c r="AN16" s="8">
@@ -2637,19 +2633,19 @@
         <v>2339</v>
       </c>
       <c r="AR16" s="8">
-        <f>SUM(G16:J16)</f>
+        <f t="shared" si="1"/>
         <v>2654</v>
       </c>
       <c r="AS16" s="8">
-        <f>SUM(K16:N16)</f>
+        <f t="shared" si="2"/>
         <v>2483</v>
       </c>
       <c r="AT16" s="8">
-        <f>SUM(O16:R16)</f>
+        <f t="shared" si="3"/>
         <v>2681</v>
       </c>
       <c r="AU16" s="8">
-        <f>SUM(S16:V16)</f>
+        <f t="shared" si="4"/>
         <v>2775.4900000000002</v>
       </c>
     </row>
@@ -2704,11 +2700,11 @@
         <v>1648</v>
       </c>
       <c r="U17" s="9">
-        <f>+Q17*1.01</f>
+        <f t="shared" si="5"/>
         <v>1486.72</v>
       </c>
       <c r="V17" s="9">
-        <f>+R17*1.01</f>
+        <f t="shared" si="6"/>
         <v>1567.52</v>
       </c>
       <c r="AO17" s="8">
@@ -2721,19 +2717,19 @@
         <v>3267</v>
       </c>
       <c r="AR17" s="8">
-        <f>SUM(G17:J17)</f>
+        <f t="shared" si="1"/>
         <v>4328</v>
       </c>
       <c r="AS17" s="8">
-        <f>SUM(K17:N17)</f>
+        <f t="shared" si="2"/>
         <v>4756</v>
       </c>
       <c r="AT17" s="8">
-        <f>SUM(O17:R17)</f>
+        <f t="shared" si="3"/>
         <v>5761</v>
       </c>
       <c r="AU17" s="8">
-        <f>SUM(S17:V17)</f>
+        <f t="shared" si="4"/>
         <v>6271.24</v>
       </c>
     </row>
@@ -2746,67 +2742,67 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
-        <f>SUM(G3:G17)</f>
+        <f t="shared" ref="G18:L18" si="7">SUM(G3:G17)</f>
         <v>10456</v>
       </c>
       <c r="H18" s="15">
-        <f>SUM(H3:H17)</f>
+        <f t="shared" si="7"/>
         <v>10223</v>
       </c>
       <c r="I18" s="15">
-        <f>SUM(I3:I17)</f>
+        <f t="shared" si="7"/>
         <v>10928</v>
       </c>
       <c r="J18" s="15">
-        <f>SUM(J3:J17)</f>
+        <f t="shared" si="7"/>
         <v>11468</v>
       </c>
       <c r="K18" s="15">
-        <f>SUM(K3:K17)</f>
+        <f t="shared" si="7"/>
         <v>11895</v>
       </c>
       <c r="L18" s="15">
-        <f>SUM(L3:L17)</f>
+        <f t="shared" si="7"/>
         <v>11257</v>
       </c>
       <c r="M18" s="15">
-        <f>SUM(M4:M17)</f>
+        <f t="shared" ref="M18:T18" si="8">SUM(M4:M17)</f>
         <v>10407</v>
       </c>
       <c r="N18" s="15">
-        <f>SUM(N4:N17)</f>
+        <f t="shared" si="8"/>
         <v>10088</v>
       </c>
       <c r="O18" s="15">
-        <f>SUM(O4:O17)</f>
+        <f t="shared" si="8"/>
         <v>9744</v>
       </c>
       <c r="P18" s="15">
-        <f>SUM(P4:P17)</f>
+        <f t="shared" si="8"/>
         <v>9975</v>
       </c>
       <c r="Q18" s="15">
-        <f>SUM(Q4:Q17)</f>
+        <f t="shared" si="8"/>
         <v>10139</v>
       </c>
       <c r="R18" s="15">
-        <f>SUM(R4:R17)</f>
+        <f t="shared" si="8"/>
         <v>10237</v>
       </c>
       <c r="S18" s="15">
-        <f>SUM(S4:S17)</f>
+        <f t="shared" si="8"/>
         <v>9963.8000000000011</v>
       </c>
       <c r="T18" s="15">
-        <f>SUM(T4:T17)</f>
+        <f t="shared" si="8"/>
         <v>10373</v>
       </c>
       <c r="U18" s="15">
-        <f>+Q18*1.01</f>
+        <f t="shared" si="5"/>
         <v>10240.39</v>
       </c>
       <c r="V18" s="15">
-        <f>+R18*1.01</f>
+        <f t="shared" si="6"/>
         <v>10339.370000000001</v>
       </c>
       <c r="AK18" s="14">
@@ -2825,27 +2821,27 @@
         <v>30578</v>
       </c>
       <c r="AP18" s="14">
-        <f>SUM(AP3:AP17)</f>
+        <f t="shared" ref="AP18:AU18" si="9">SUM(AP3:AP17)</f>
         <v>31904</v>
       </c>
       <c r="AQ18" s="14">
-        <f>SUM(AQ3:AQ17)</f>
+        <f t="shared" si="9"/>
         <v>34608</v>
       </c>
       <c r="AR18" s="14">
-        <f>SUM(AR3:AR17)</f>
+        <f t="shared" si="9"/>
         <v>43075</v>
       </c>
       <c r="AS18" s="14">
-        <f>SUM(AS3:AS17)</f>
+        <f t="shared" si="9"/>
         <v>43650</v>
       </c>
       <c r="AT18" s="14">
-        <f>SUM(AT3:AT17)</f>
+        <f t="shared" si="9"/>
         <v>40095</v>
       </c>
       <c r="AU18" s="14">
-        <f>SUM(AU3:AU17)</f>
+        <f t="shared" si="9"/>
         <v>40916.55999999999</v>
       </c>
     </row>
@@ -2879,39 +2875,39 @@
         <v>4629</v>
       </c>
       <c r="N19" s="9">
-        <f>+N18-N20</f>
+        <f t="shared" ref="N19:V19" si="10">+N18-N20</f>
         <v>4474</v>
       </c>
       <c r="O19" s="8">
-        <f>+O18-O20</f>
+        <f t="shared" si="10"/>
         <v>4299</v>
       </c>
       <c r="P19" s="8">
-        <f>+P18-P20</f>
+        <f t="shared" si="10"/>
         <v>4449</v>
       </c>
       <c r="Q19" s="8">
-        <f>+Q18-Q20</f>
+        <f t="shared" si="10"/>
         <v>4555</v>
       </c>
       <c r="R19" s="8">
-        <f>+R18-R20</f>
+        <f t="shared" si="10"/>
         <v>4515</v>
       </c>
       <c r="S19" s="8">
-        <f>+S18-S20</f>
+        <f t="shared" si="10"/>
         <v>4416.8000000000011</v>
       </c>
       <c r="T19" s="8">
-        <f>+T18-T20</f>
+        <f t="shared" si="10"/>
         <v>4564</v>
       </c>
       <c r="U19" s="8">
-        <f>+U18-U20</f>
+        <f t="shared" si="10"/>
         <v>4505.7715999999991</v>
       </c>
       <c r="V19" s="8">
-        <f>+V18-V20</f>
+        <f t="shared" si="10"/>
         <v>4549.3227999999999</v>
       </c>
       <c r="AM19" s="8">
@@ -2955,31 +2951,31 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9">
-        <f>+G18-G19</f>
+        <f t="shared" ref="G20:M20" si="11">+G18-G19</f>
         <v>6055</v>
       </c>
       <c r="H20" s="9">
-        <f>+H18-H19</f>
+        <f t="shared" si="11"/>
         <v>5276</v>
       </c>
       <c r="I20" s="9">
-        <f>+I18-I19</f>
+        <f t="shared" si="11"/>
         <v>6505</v>
       </c>
       <c r="J20" s="9">
-        <f>+J18-J19</f>
+        <f t="shared" si="11"/>
         <v>6702</v>
       </c>
       <c r="K20" s="9">
-        <f>+K18-K19</f>
+        <f t="shared" si="11"/>
         <v>6908</v>
       </c>
       <c r="L20" s="9">
-        <f>+L18-L19</f>
+        <f t="shared" si="11"/>
         <v>6324</v>
       </c>
       <c r="M20" s="9">
-        <f>+M18-M19</f>
+        <f t="shared" si="11"/>
         <v>5778</v>
       </c>
       <c r="N20" s="9">
@@ -3012,39 +3008,39 @@
         <v>5790.0472000000009</v>
       </c>
       <c r="AM20" s="8">
-        <f>+AM18-AM19</f>
+        <f t="shared" ref="AM20:AU20" si="12">+AM18-AM19</f>
         <v>11759</v>
       </c>
       <c r="AN20" s="8">
-        <f>+AN18-AN19</f>
+        <f t="shared" si="12"/>
         <v>14981</v>
       </c>
       <c r="AO20" s="8">
-        <f>+AO18-AO19</f>
+        <f t="shared" si="12"/>
         <v>17872</v>
       </c>
       <c r="AP20" s="8">
-        <f>+AP18-AP19</f>
+        <f t="shared" si="12"/>
         <v>18673</v>
       </c>
       <c r="AQ20" s="8">
-        <f>+AQ18-AQ19</f>
+        <f t="shared" si="12"/>
         <v>19605</v>
       </c>
       <c r="AR20" s="8">
-        <f>+AR18-AR19</f>
+        <f t="shared" si="12"/>
         <v>24538</v>
       </c>
       <c r="AS20" s="8">
-        <f>+AS18-AS19</f>
+        <f t="shared" si="12"/>
         <v>24627</v>
       </c>
       <c r="AT20" s="8">
-        <f>+AT18-AT19</f>
+        <f t="shared" si="12"/>
         <v>22277</v>
       </c>
       <c r="AU20" s="8">
-        <f>+AU18-AU19</f>
+        <f t="shared" si="12"/>
         <v>22880.665599999993</v>
       </c>
     </row>
@@ -3237,103 +3233,103 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9">
-        <f>+G21+G22</f>
+        <f t="shared" ref="G23:V23" si="13">+G21+G22</f>
         <v>3437</v>
       </c>
       <c r="H23" s="9">
-        <f>+H21+H22</f>
+        <f t="shared" si="13"/>
         <v>3380</v>
       </c>
       <c r="I23" s="9">
-        <f>+I21+I22</f>
+        <f t="shared" si="13"/>
         <v>3439</v>
       </c>
       <c r="J23" s="9">
-        <f>+J21+J22</f>
+        <f t="shared" si="13"/>
         <v>3810</v>
       </c>
       <c r="K23" s="9">
-        <f>+K21+K22</f>
+        <f t="shared" si="13"/>
         <v>3484</v>
       </c>
       <c r="L23" s="9">
-        <f>+L21+L22</f>
+        <f t="shared" si="13"/>
         <v>3441</v>
       </c>
       <c r="M23" s="9">
-        <f>+M21+M22</f>
+        <f t="shared" si="13"/>
         <v>3513</v>
       </c>
       <c r="N23" s="9">
-        <f>+N21+N22</f>
+        <f t="shared" si="13"/>
         <v>3483</v>
       </c>
       <c r="O23" s="9">
-        <f>+O21+O22</f>
+        <f t="shared" si="13"/>
         <v>3390</v>
       </c>
       <c r="P23" s="8">
-        <f>+P21+P22</f>
+        <f t="shared" si="13"/>
         <v>3361</v>
       </c>
       <c r="Q23" s="8">
-        <f>+Q21+Q22</f>
+        <f t="shared" si="13"/>
         <v>3306</v>
       </c>
       <c r="R23" s="8">
-        <f>+R21+R22</f>
+        <f t="shared" si="13"/>
         <v>3311</v>
       </c>
       <c r="S23" s="8">
-        <f>+S21+S22</f>
+        <f t="shared" si="13"/>
         <v>3588</v>
       </c>
       <c r="T23" s="8">
-        <f>+T21+T22</f>
+        <f t="shared" si="13"/>
         <v>3536</v>
       </c>
       <c r="U23" s="8">
-        <f>+U21+U22</f>
+        <f t="shared" si="13"/>
         <v>3306</v>
       </c>
       <c r="V23" s="8">
-        <f>+V21+V22</f>
+        <f t="shared" si="13"/>
         <v>3311</v>
       </c>
       <c r="AM23" s="9">
-        <f>+AM21+AM22</f>
+        <f t="shared" ref="AM23:AU23" si="14">+AM21+AM22</f>
         <v>8183</v>
       </c>
       <c r="AN23" s="9">
-        <f>+AN21+AN22</f>
+        <f t="shared" si="14"/>
         <v>11442</v>
       </c>
       <c r="AO23" s="9">
-        <f>+AO21+AO22</f>
+        <f t="shared" si="14"/>
         <v>12044</v>
       </c>
       <c r="AP23" s="9">
-        <f>+AP21+AP22</f>
+        <f t="shared" si="14"/>
         <v>12205</v>
       </c>
       <c r="AQ23" s="9">
-        <f>+AQ21+AQ22</f>
+        <f t="shared" si="14"/>
         <v>12116</v>
       </c>
       <c r="AR23" s="9">
-        <f>+AR21+AR22</f>
+        <f t="shared" si="14"/>
         <v>14066</v>
       </c>
       <c r="AS23" s="9">
-        <f>+AS21+AS22</f>
+        <f t="shared" si="14"/>
         <v>13921</v>
       </c>
       <c r="AT23" s="9">
-        <f>+AT21+AT22</f>
+        <f t="shared" si="14"/>
         <v>13368</v>
       </c>
       <c r="AU23" s="9">
-        <f>+AU21+AU22</f>
+        <f t="shared" si="14"/>
         <v>13741</v>
       </c>
     </row>
@@ -3346,103 +3342,103 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9">
-        <f>+G20-G23</f>
+        <f t="shared" ref="G24:V24" si="15">+G20-G23</f>
         <v>2618</v>
       </c>
       <c r="H24" s="9">
-        <f>+H20-H23</f>
+        <f t="shared" si="15"/>
         <v>1896</v>
       </c>
       <c r="I24" s="9">
-        <f>+I20-I23</f>
+        <f t="shared" si="15"/>
         <v>3066</v>
       </c>
       <c r="J24" s="9">
-        <f>+J20-J23</f>
+        <f t="shared" si="15"/>
         <v>2892</v>
       </c>
       <c r="K24" s="9">
-        <f>+K20-K23</f>
+        <f t="shared" si="15"/>
         <v>3424</v>
       </c>
       <c r="L24" s="9">
-        <f>+L20-L23</f>
+        <f t="shared" si="15"/>
         <v>2883</v>
       </c>
       <c r="M24" s="9">
-        <f>+M20-M23</f>
+        <f t="shared" si="15"/>
         <v>2265</v>
       </c>
       <c r="N24" s="9">
-        <f>+N20-N23</f>
+        <f t="shared" si="15"/>
         <v>2131</v>
       </c>
       <c r="O24" s="9">
-        <f>+O20-O23</f>
+        <f t="shared" si="15"/>
         <v>2055</v>
       </c>
       <c r="P24" s="8">
-        <f>+P20-P23</f>
+        <f t="shared" si="15"/>
         <v>2165</v>
       </c>
       <c r="Q24" s="8">
-        <f>+Q20-Q23</f>
+        <f t="shared" si="15"/>
         <v>2278</v>
       </c>
       <c r="R24" s="8">
-        <f>+R20-R23</f>
+        <f t="shared" si="15"/>
         <v>2411</v>
       </c>
       <c r="S24" s="8">
-        <f>+S20-S23</f>
+        <f t="shared" si="15"/>
         <v>1959</v>
       </c>
       <c r="T24" s="8">
-        <f>+T20-T23</f>
+        <f t="shared" si="15"/>
         <v>2273</v>
       </c>
       <c r="U24" s="8">
-        <f>+U20-U23</f>
+        <f t="shared" si="15"/>
         <v>2428.6184000000003</v>
       </c>
       <c r="V24" s="8">
-        <f>+V20-V23</f>
+        <f t="shared" si="15"/>
         <v>2479.0472000000009</v>
       </c>
       <c r="AM24" s="9">
-        <f>+AM20-AM23</f>
+        <f t="shared" ref="AM24:AU24" si="16">+AM20-AM23</f>
         <v>3576</v>
       </c>
       <c r="AN24" s="9">
-        <f>+AN20-AN23</f>
+        <f t="shared" si="16"/>
         <v>3539</v>
       </c>
       <c r="AO24" s="9">
-        <f>+AO20-AO23</f>
+        <f t="shared" si="16"/>
         <v>5828</v>
       </c>
       <c r="AP24" s="9">
-        <f>+AP20-AP23</f>
+        <f t="shared" si="16"/>
         <v>6468</v>
       </c>
       <c r="AQ24" s="9">
-        <f>+AQ20-AQ23</f>
+        <f t="shared" si="16"/>
         <v>7489</v>
       </c>
       <c r="AR24" s="9">
-        <f>+AR20-AR23</f>
+        <f t="shared" si="16"/>
         <v>10472</v>
       </c>
       <c r="AS24" s="9">
-        <f>+AS20-AS23</f>
+        <f t="shared" si="16"/>
         <v>10706</v>
       </c>
       <c r="AT24" s="9">
-        <f>+AT20-AT23</f>
+        <f t="shared" si="16"/>
         <v>8909</v>
       </c>
       <c r="AU24" s="9">
-        <f>+AU20-AU23</f>
+        <f t="shared" si="16"/>
         <v>9139.665599999993</v>
       </c>
     </row>
@@ -3549,103 +3545,103 @@
         <v>83</v>
       </c>
       <c r="G26" s="9">
-        <f>+G24+G25</f>
+        <f t="shared" ref="G26:V26" si="17">+G24+G25</f>
         <v>2555</v>
       </c>
       <c r="H26" s="9">
-        <f>+H24+H25</f>
+        <f t="shared" si="17"/>
         <v>1852</v>
       </c>
       <c r="I26" s="9">
-        <f>+I24+I25</f>
+        <f t="shared" si="17"/>
         <v>3017</v>
       </c>
       <c r="J26" s="9">
-        <f>+J24+J25</f>
+        <f t="shared" si="17"/>
         <v>2835</v>
       </c>
       <c r="K26" s="9">
-        <f>+K24+K25</f>
+        <f t="shared" si="17"/>
         <v>3385</v>
       </c>
       <c r="L26" s="9">
-        <f>+L24+L25</f>
+        <f t="shared" si="17"/>
         <v>2859</v>
       </c>
       <c r="M26" s="9">
-        <f>+M24+M25</f>
+        <f t="shared" si="17"/>
         <v>2272</v>
       </c>
       <c r="N26" s="9">
-        <f>+N24+N25</f>
+        <f t="shared" si="17"/>
         <v>2223</v>
       </c>
       <c r="O26" s="9">
-        <f>+O24+O25</f>
+        <f t="shared" si="17"/>
         <v>2166</v>
       </c>
       <c r="P26" s="8">
-        <f>+P24+P25</f>
+        <f t="shared" si="17"/>
         <v>2284</v>
       </c>
       <c r="Q26" s="8">
-        <f>+Q24+Q25</f>
+        <f t="shared" si="17"/>
         <v>2384</v>
       </c>
       <c r="R26" s="8">
-        <f>+R24+R25</f>
+        <f t="shared" si="17"/>
         <v>2529</v>
       </c>
       <c r="S26" s="8">
-        <f>+S24+S25</f>
+        <f t="shared" si="17"/>
         <v>2096</v>
       </c>
       <c r="T26" s="8">
-        <f>+T24+T25</f>
+        <f t="shared" si="17"/>
         <v>2408</v>
       </c>
       <c r="U26" s="8">
-        <f>+U24+U25</f>
+        <f t="shared" si="17"/>
         <v>2563.6184000000003</v>
       </c>
       <c r="V26" s="8">
-        <f>+V24+V25</f>
+        <f t="shared" si="17"/>
         <v>2614.0472000000009</v>
       </c>
       <c r="AM26" s="8">
-        <f>+AM24+AM25</f>
+        <f t="shared" ref="AM26:AU26" si="18">+AM24+AM25</f>
         <v>4263</v>
       </c>
       <c r="AN26" s="8">
-        <f>+AN24+AN25</f>
+        <f t="shared" si="18"/>
         <v>1346</v>
       </c>
       <c r="AO26" s="8">
-        <f>+AO24+AO25</f>
+        <f t="shared" si="18"/>
         <v>5246</v>
       </c>
       <c r="AP26" s="8">
-        <f>+AP24+AP25</f>
+        <f t="shared" si="18"/>
         <v>6083</v>
       </c>
       <c r="AQ26" s="8">
-        <f>+AQ24+AQ25</f>
+        <f t="shared" si="18"/>
         <v>7092</v>
       </c>
       <c r="AR26" s="8">
-        <f>+AR24+AR25</f>
+        <f t="shared" si="18"/>
         <v>10259</v>
       </c>
       <c r="AS26" s="8">
-        <f>+AS24+AS25</f>
+        <f t="shared" si="18"/>
         <v>10742</v>
       </c>
       <c r="AT26" s="8">
-        <f>+AT24+AT25</f>
+        <f t="shared" si="18"/>
         <v>9363</v>
       </c>
       <c r="AU26" s="8">
-        <f>+AU24+AU25</f>
+        <f t="shared" si="18"/>
         <v>9681.665599999993</v>
       </c>
     </row>
@@ -3740,103 +3736,103 @@
         <v>82</v>
       </c>
       <c r="G28" s="9">
-        <f>+G26-G27</f>
+        <f t="shared" ref="G28:V28" si="19">+G26-G27</f>
         <v>2305</v>
       </c>
       <c r="H28" s="9">
-        <f>+H26-H27</f>
+        <f t="shared" si="19"/>
         <v>1693</v>
       </c>
       <c r="I28" s="9">
-        <f>+I26-I27</f>
+        <f t="shared" si="19"/>
         <v>2624</v>
       </c>
       <c r="J28" s="9">
-        <f>+J26-J27</f>
+        <f t="shared" si="19"/>
         <v>2437</v>
       </c>
       <c r="K28" s="9">
-        <f>+K26-K27</f>
+        <f t="shared" si="19"/>
         <v>2956</v>
       </c>
       <c r="L28" s="9">
-        <f>+L26-L27</f>
+        <f t="shared" si="19"/>
         <v>2525</v>
       </c>
       <c r="M28" s="9">
-        <f>+M26-M27</f>
+        <f t="shared" si="19"/>
         <v>1949</v>
       </c>
       <c r="N28" s="9">
-        <f>+N26-N27</f>
+        <f t="shared" si="19"/>
         <v>1863</v>
       </c>
       <c r="O28" s="9">
-        <f>+O26-O27</f>
+        <f t="shared" si="19"/>
         <v>1871</v>
       </c>
       <c r="P28" s="8">
-        <f>+P26-P27</f>
+        <f t="shared" si="19"/>
         <v>1975</v>
       </c>
       <c r="Q28" s="8">
-        <f>+Q26-Q27</f>
+        <f t="shared" si="19"/>
         <v>2059</v>
       </c>
       <c r="R28" s="8">
-        <f>+R26-R27</f>
+        <f t="shared" si="19"/>
         <v>2188</v>
       </c>
       <c r="S28" s="8">
-        <f>+S26-S27</f>
+        <f t="shared" si="19"/>
         <v>1790</v>
       </c>
       <c r="T28" s="8">
-        <f>+T26-T27</f>
+        <f t="shared" si="19"/>
         <v>2055</v>
       </c>
       <c r="U28" s="8">
-        <f>+U26-U27</f>
+        <f t="shared" si="19"/>
         <v>2179.07564</v>
       </c>
       <c r="V28" s="8">
-        <f>+V26-V27</f>
+        <f t="shared" si="19"/>
         <v>2221.9401200000007</v>
       </c>
       <c r="AM28" s="8">
-        <f>+AM26-AM27</f>
+        <f t="shared" ref="AM28:AU28" si="20">+AM26-AM27</f>
         <v>3913</v>
       </c>
       <c r="AN28" s="8">
-        <f>+AN26-AN27</f>
+        <f t="shared" si="20"/>
         <v>1346</v>
       </c>
       <c r="AO28" s="8">
-        <f>+AO26-AO27</f>
+        <f t="shared" si="20"/>
         <v>4707</v>
       </c>
       <c r="AP28" s="8">
-        <f>+AP26-AP27</f>
+        <f t="shared" si="20"/>
         <v>5693</v>
       </c>
       <c r="AQ28" s="8">
-        <f>+AQ26-AQ27</f>
+        <f t="shared" si="20"/>
         <v>6595</v>
       </c>
       <c r="AR28" s="8">
-        <f>+AR26-AR27</f>
+        <f t="shared" si="20"/>
         <v>9059</v>
       </c>
       <c r="AS28" s="8">
-        <f>+AS26-AS27</f>
+        <f t="shared" si="20"/>
         <v>9296</v>
       </c>
       <c r="AT28" s="8">
-        <f>+AT26-AT27</f>
+        <f t="shared" si="20"/>
         <v>8093</v>
       </c>
       <c r="AU28" s="8">
-        <f>+AU26-AU27</f>
+        <f t="shared" si="20"/>
         <v>8246.015759999993</v>
       </c>
     </row>
@@ -3845,103 +3841,103 @@
         <v>81</v>
       </c>
       <c r="G29" s="10" t="e">
-        <f>+G28/G30</f>
+        <f t="shared" ref="G29:V29" si="21">+G28/G30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="10">
-        <f>+H28/H30</f>
+        <f t="shared" si="21"/>
         <v>0.94408064779657819</v>
       </c>
       <c r="I29" s="10">
-        <f>+I28/I30</f>
+        <f t="shared" si="21"/>
         <v>1.4667420160659677</v>
       </c>
       <c r="J29" s="10">
-        <f>+J28/J30</f>
+        <f t="shared" si="21"/>
         <v>1.3675645342312008</v>
       </c>
       <c r="K29" s="10">
-        <f>+K28/K30</f>
+        <f t="shared" si="21"/>
         <v>1.6657819313377762</v>
       </c>
       <c r="L29" s="10">
-        <f>+L28/L30</f>
+        <f t="shared" si="21"/>
         <v>1.4302197213988626</v>
       </c>
       <c r="M29" s="10">
-        <f>+M28/M30</f>
+        <f t="shared" si="21"/>
         <v>1.1050926684557563</v>
       </c>
       <c r="N29" s="10">
-        <f>+N28/N30</f>
+        <f t="shared" si="21"/>
         <v>1.0621436716077537</v>
       </c>
       <c r="O29" s="10">
-        <f>+O28/O30</f>
+        <f t="shared" si="21"/>
         <v>1.0679223744292237</v>
       </c>
       <c r="P29" s="11">
-        <f>+P28/P30</f>
+        <f t="shared" si="21"/>
         <v>1.1279268989149058</v>
       </c>
       <c r="Q29" s="11">
-        <f>+Q28/Q30</f>
+        <f t="shared" si="21"/>
         <v>1.1779176201372998</v>
       </c>
       <c r="R29" s="11">
-        <f>+R28/R30</f>
+        <f t="shared" si="21"/>
         <v>1.2517162471395882</v>
       </c>
       <c r="S29" s="11">
-        <f>+S28/S30</f>
+        <f t="shared" si="21"/>
         <v>1.0228571428571429</v>
       </c>
       <c r="T29" s="11">
-        <f>+T28/T30</f>
+        <f t="shared" si="21"/>
         <v>1.1736150770988008</v>
       </c>
       <c r="U29" s="11">
-        <f>+U28/U30</f>
+        <f t="shared" si="21"/>
         <v>1.2444749514563107</v>
       </c>
       <c r="V29" s="11">
-        <f>+V28/V30</f>
+        <f t="shared" si="21"/>
         <v>1.268954951456311</v>
       </c>
       <c r="AM29" s="11">
-        <f>+AM28/AM30</f>
+        <f t="shared" ref="AM29:AU29" si="22">+AM28/AM30</f>
         <v>2.6385704652730952</v>
       </c>
       <c r="AN29" s="11">
-        <f>+AN28/AN30</f>
+        <f t="shared" si="22"/>
         <v>0.76958261863922239</v>
       </c>
       <c r="AO29" s="11">
-        <f>+AO28/AO30</f>
+        <f t="shared" si="22"/>
         <v>2.659322033898305</v>
       </c>
       <c r="AP29" s="11">
-        <f>+AP28/AP30</f>
+        <f t="shared" si="22"/>
         <v>3.1965188096574959</v>
       </c>
       <c r="AQ29" s="11">
-        <f>+AQ28/AQ30</f>
+        <f t="shared" si="22"/>
         <v>3.692609182530795</v>
       </c>
       <c r="AR29" s="11">
-        <f>+AR28/AR30</f>
+        <f t="shared" si="22"/>
         <v>5.0662922391419682</v>
       </c>
       <c r="AS29" s="11">
-        <f>+AS28/AS30</f>
+        <f t="shared" si="22"/>
         <v>5.2686032675428587</v>
       </c>
       <c r="AT29" s="11">
-        <f>+AT28/AT30</f>
+        <f t="shared" si="22"/>
         <v>4.625232176025146</v>
       </c>
       <c r="AU29" s="11">
-        <f>+AU28/AU30</f>
+        <f t="shared" si="22"/>
         <v>4.7099904383835458</v>
       </c>
     </row>
@@ -4062,75 +4058,75 @@
         <v>-0.12033484478549006</v>
       </c>
       <c r="O32" s="19">
-        <f>+O18/K18-1</f>
+        <f t="shared" ref="O32:V32" si="23">+O18/K18-1</f>
         <v>-0.18083228247162675</v>
       </c>
       <c r="P32" s="19">
-        <f>+P18/L18-1</f>
+        <f t="shared" si="23"/>
         <v>-0.11388469396819756</v>
       </c>
       <c r="Q32" s="19">
-        <f>+Q18/M18-1</f>
+        <f t="shared" si="23"/>
         <v>-2.57518977611223E-2</v>
       </c>
       <c r="R32" s="19">
-        <f>+R18/N18-1</f>
+        <f t="shared" si="23"/>
         <v>1.4770023790642295E-2</v>
       </c>
       <c r="S32" s="19">
-        <f>+S18/O18-1</f>
+        <f t="shared" si="23"/>
         <v>2.2557471264367912E-2</v>
       </c>
       <c r="T32" s="19">
-        <f>+T18/P18-1</f>
+        <f t="shared" si="23"/>
         <v>3.9899749373433657E-2</v>
       </c>
       <c r="U32" s="19">
-        <f>+U18/Q18-1</f>
+        <f t="shared" si="23"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V32" s="19">
-        <f>+V18/R18-1</f>
+        <f t="shared" si="23"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AL32" s="19">
-        <f>+AL18/AK18-1</f>
+        <f t="shared" ref="AL32:AU32" si="24">+AL18/AK18-1</f>
         <v>7.8036252284288121E-3</v>
       </c>
       <c r="AM32" s="19">
-        <f>+AM18/AL18-1</f>
+        <f t="shared" si="24"/>
         <v>2.1955403087478453E-2</v>
       </c>
       <c r="AN32" s="19">
-        <f>+AN18/AM18-1</f>
+        <f t="shared" si="24"/>
         <v>0.31348007480938</v>
       </c>
       <c r="AO32" s="19">
-        <f>+AO18/AN18-1</f>
+        <f t="shared" si="24"/>
         <v>0.11639284410368744</v>
       </c>
       <c r="AP32" s="19">
-        <f>+AP18/AO18-1</f>
+        <f t="shared" si="24"/>
         <v>4.3364510432337022E-2</v>
       </c>
       <c r="AQ32" s="19">
-        <f>+AQ18/AP18-1</f>
+        <f t="shared" si="24"/>
         <v>8.4754262788365065E-2</v>
       </c>
       <c r="AR32" s="19">
-        <f>+AR18/AQ18-1</f>
+        <f t="shared" si="24"/>
         <v>0.2446544151641239</v>
       </c>
       <c r="AS32" s="19">
-        <f>+AS18/AR18-1</f>
+        <f t="shared" si="24"/>
         <v>1.3348810214741658E-2</v>
       </c>
       <c r="AT32" s="19">
-        <f>+AT18/AS18-1</f>
+        <f t="shared" si="24"/>
         <v>-8.1443298969072209E-2</v>
       </c>
       <c r="AU32" s="19">
-        <f>+AU18/AT18-1</f>
+        <f t="shared" si="24"/>
         <v>2.0490335453298147E-2</v>
       </c>
     </row>
@@ -4139,103 +4135,103 @@
         <v>78</v>
       </c>
       <c r="G33" s="12">
-        <f>+G20/G18</f>
+        <f t="shared" ref="G33:V33" si="25">+G20/G18</f>
         <v>0.57909334353481257</v>
       </c>
       <c r="H33" s="12">
-        <f>+H20/H18</f>
+        <f t="shared" si="25"/>
         <v>0.51609116697642565</v>
       </c>
       <c r="I33" s="12">
-        <f>+I20/I18</f>
+        <f t="shared" si="25"/>
         <v>0.59525988286969256</v>
       </c>
       <c r="J33" s="12">
-        <f>+J20/J18</f>
+        <f t="shared" si="25"/>
         <v>0.58440878967561916</v>
       </c>
       <c r="K33" s="12">
-        <f>+K20/K18</f>
+        <f t="shared" si="25"/>
         <v>0.58074821353509876</v>
       </c>
       <c r="L33" s="12">
-        <f>+L20/L18</f>
+        <f t="shared" si="25"/>
         <v>0.56178377898196674</v>
       </c>
       <c r="M33" s="12">
-        <f>+M20/M18</f>
+        <f t="shared" si="25"/>
         <v>0.55520322859613724</v>
       </c>
       <c r="N33" s="12">
-        <f>+N20/N18</f>
+        <f t="shared" si="25"/>
         <v>0.55650277557494054</v>
       </c>
       <c r="O33" s="13">
-        <f>+O20/O18</f>
+        <f t="shared" si="25"/>
         <v>0.55880541871921185</v>
       </c>
       <c r="P33" s="13">
-        <f>+P20/P18</f>
+        <f t="shared" si="25"/>
         <v>0.55398496240601502</v>
       </c>
       <c r="Q33" s="13">
-        <f>+Q20/Q18</f>
+        <f t="shared" si="25"/>
         <v>0.55074464937370549</v>
       </c>
       <c r="R33" s="13">
-        <f>+R20/R18</f>
+        <f t="shared" si="25"/>
         <v>0.55895281820845955</v>
       </c>
       <c r="S33" s="13">
-        <f>+S20/S18</f>
+        <f t="shared" si="25"/>
         <v>0.55671530942010072</v>
       </c>
       <c r="T33" s="13">
-        <f>+T20/T18</f>
+        <f t="shared" si="25"/>
         <v>0.56001156849513156</v>
       </c>
       <c r="U33" s="13">
-        <f>+U20/U18</f>
+        <f t="shared" si="25"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="V33" s="13">
-        <f>+V20/V18</f>
+        <f t="shared" si="25"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AM33" s="13">
-        <f>+AM20/AM18</f>
+        <f t="shared" ref="AM33:AU33" si="26">+AM20/AM18</f>
         <v>0.56389967870330404</v>
       </c>
       <c r="AN33" s="13">
-        <f>+AN20/AN18</f>
+        <f t="shared" si="26"/>
         <v>0.54695144213216507</v>
       </c>
       <c r="AO33" s="13">
-        <f>+AO20/AO18</f>
+        <f t="shared" si="26"/>
         <v>0.58447249656615863</v>
       </c>
       <c r="AP33" s="13">
-        <f>+AP20/AP18</f>
+        <f t="shared" si="26"/>
         <v>0.58528711133400202</v>
       </c>
       <c r="AQ33" s="13">
-        <f>+AQ20/AQ18</f>
+        <f t="shared" si="26"/>
         <v>0.56648751733703195</v>
       </c>
       <c r="AR33" s="13">
-        <f>+AR20/AR18</f>
+        <f t="shared" si="26"/>
         <v>0.56965757399883921</v>
       </c>
       <c r="AS33" s="13">
-        <f>+AS20/AS18</f>
+        <f t="shared" si="26"/>
         <v>0.56419243986254297</v>
       </c>
       <c r="AT33" s="13">
-        <f>+AT20/AT18</f>
+        <f t="shared" si="26"/>
         <v>0.55560543708691856</v>
       </c>
       <c r="AU33" s="13">
-        <f>+AU20/AU18</f>
+        <f t="shared" si="26"/>
         <v>0.55920306105889639</v>
       </c>
     </row>
@@ -4606,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4BFCA-4E0B-4279-9473-C648D951BFDF}">
   <dimension ref="H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ABT_Model.xlsx
+++ b/ABT_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E92C88-4986-4A8E-9EB9-546468742098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DA482D-BA6D-4C66-AFEC-2401F30A09B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41535" yWindow="2160" windowWidth="14295" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1258,11 +1258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0773A5C-C572-4C44-A745-B751BE8F7CC9}">
   <dimension ref="B2:BA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
